--- a/Project-Management-Documentation/Project_Management - New.xlsx
+++ b/Project-Management-Documentation/Project_Management - New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenorthumbriaac-my.sharepoint.com/personal/w21003524_northumbria_ac_uk/Documents/Documents/YEAR 2/SEMESTER 2/AI STREAM SEP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3250" documentId="13_ncr:1_{325D4040-89AB-4B90-B90A-1C0FCE29050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B918D7-7B2C-4728-8D94-344923731904}"/>
+  <xr:revisionPtr revIDLastSave="3626" documentId="13_ncr:1_{325D4040-89AB-4B90-B90A-1C0FCE29050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBEE36C9-1E3E-4D6C-BBC6-E1C1BA6E20BF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5FEFA66F-8596-4656-A8B8-88C20965FA85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5FEFA66F-8596-4656-A8B8-88C20965FA85}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK LIST" sheetId="1" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1364,8 +1364,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1584,11 +1590,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1725,36 +1751,21 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1770,7 +1781,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1778,6 +1789,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8152,6 +8175,1981 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9ACFCB3-208C-498B-BF39-7F79325CE0BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11134725" y="20002500"/>
+          <a:ext cx="0" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>135387</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>51903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>135387</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>206035</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0495B3-6394-4AE6-8549-BA1E7FCBEBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21928587" y="29284128"/>
+          <a:ext cx="0" cy="154132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774BFE2B-C3F7-4D36-8387-A8C0082A6B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21926550" y="29279850"/>
+          <a:ext cx="2691093" cy="7284"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>221877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4B616F-4B1A-4358-8D73-3FD553E277D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24622125" y="29279850"/>
+          <a:ext cx="0" cy="174252"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>192232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B3E7D4-50B2-4398-9E84-12B8C9C1811D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21945600" y="31508700"/>
+          <a:ext cx="0" cy="154132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>90768</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>45384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EEFCC8-F612-4C43-95FA-6307662E61BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21945600" y="31508700"/>
+          <a:ext cx="2691093" cy="7284"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>212352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F50F3A8-E3EC-44C2-9166-DA3EF17358D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24631650" y="31508700"/>
+          <a:ext cx="0" cy="174252"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>58511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>212643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA0BA3F-1A0D-43CE-B28A-D88B2E54EBCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25003125" y="35367686"/>
+          <a:ext cx="0" cy="154132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B598F10D-8D6C-4FF1-90D4-854C479481D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25003125" y="35366325"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>221877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11856FFB-7C5C-4F30-BF09-3C7A163A6ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25307925" y="35356800"/>
+          <a:ext cx="0" cy="174252"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>138952</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>177053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>138952</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>140685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39249EE3-40FE-4C99-9198-5F5CF266661C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17474452" y="36304818"/>
+          <a:ext cx="0" cy="154132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>138953</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C93618-6A3B-4A97-BEA6-4F1CB37F8C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17974516" y="34716383"/>
+          <a:ext cx="5599859" cy="2242"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>71435</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>71435</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>174252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471759BE-CCD0-4DA6-B8B5-B28F8AC5FB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23574373" y="34709100"/>
+          <a:ext cx="0" cy="183777"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>32497</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>5043</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connector: Elbow 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EDC043-B195-4267-AA6A-D0226126597F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22474238" y="29869559"/>
+          <a:ext cx="132790" cy="134471"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>42023</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>14569</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>132791</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Connector: Elbow 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424F2C54-4B94-4BC4-9968-DFFC67EE9CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22645689" y="30079110"/>
+          <a:ext cx="132790" cy="134471"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>42024</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>14570</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>66117</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connector: Elbow 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0297C5B2-92EB-4BDB-BBB4-AFFC1A2930F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22645690" y="30212461"/>
+          <a:ext cx="132790" cy="134471"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>137934</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>132790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Connector: Elbow 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E924FFD-557F-4164-B2EA-3D513CE0990A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22614922" y="30363127"/>
+          <a:ext cx="475690" cy="423685"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98057"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>4585</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Connector: Elbow 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A28EFA-8281-4B6B-A037-E3F097B5E1C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21829110" y="32044290"/>
+          <a:ext cx="132790" cy="128410"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7EA580-2681-4BA8-A4DC-14DF209C2A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21831300" y="32042100"/>
+          <a:ext cx="123825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>158348</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>70199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Connector: Elbow 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528E6933-982E-4C06-BD8D-86740702D057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21818227" y="32455227"/>
+          <a:ext cx="136872" cy="129771"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>27878</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>134745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>151703</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>134745</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5034CAF7-4B6F-4200-8684-9D6C8D96BAA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21870329" y="32389647"/>
+          <a:ext cx="123825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>28354</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>65945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Connector: Elbow 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A660DE2-0B55-4C80-9546-977C81E89FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22101506" y="32475793"/>
+          <a:ext cx="302950" cy="190816"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 788"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>13813</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>99541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Connector: Elbow 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485017A2-B756-41E3-80A1-74AE40B37F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22282907" y="32771591"/>
+          <a:ext cx="140955" cy="129771"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>45655</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>164501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>3827</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>164501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B0ADD3-6B69-43E0-AB77-2296F4A984CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22000780" y="32882876"/>
+          <a:ext cx="120097" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>172641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>172641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A103275-21C3-46B3-BA92-35DE6C0771FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21883688" y="33414891"/>
+          <a:ext cx="123825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>170310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>158188</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>112482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Connector: Elbow 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D901F7-37A0-4F1C-AA2E-FDF04887792E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22264088" y="32985775"/>
+          <a:ext cx="140955" cy="124852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>39550</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>173623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>164402</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>115796</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Connector: Elbow 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996E1FFC-2971-4EE0-83FB-F423681614E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22270302" y="33187871"/>
+          <a:ext cx="140955" cy="124852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>34167</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>168500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>157992</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>168500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6A6BAC-A060-4C1F-AC3B-CC0B84A7A47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22272971" y="33174696"/>
+          <a:ext cx="123825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF750CA-540E-418D-85AC-A7365A8E6819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21901547" y="33813750"/>
+          <a:ext cx="123825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>39290</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>158353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>158353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Connector 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6AEF12-685F-4200-90D1-B69294639D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21899165" y="34007822"/>
+          <a:ext cx="123825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>49385</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>157834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>13503</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>100008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Connector: Elbow 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C12F97-5CD4-41BA-9A6F-36F3E92B8B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21899396" y="33814761"/>
+          <a:ext cx="144580" cy="124852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>41051</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>173312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>5169</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>115486</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Connector: Elbow 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C48DB3-D15B-4FE3-8F06-F69A2866E872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21891062" y="34032645"/>
+          <a:ext cx="144580" cy="124852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>43963</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>3770</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>99918</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Connector: Elbow 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6361AA9B-6F09-48E8-A809-91EFC5C26654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22577465" y="34074306"/>
+          <a:ext cx="143879" cy="121000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>52663</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>15753</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Connector 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EF8DF6-51BF-4F62-9818-870DB9FB64CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22597605" y="34062865"/>
+          <a:ext cx="124283" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>42499</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>160461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>2306</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>106513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Connector: Elbow 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C7D919-7605-45FD-832F-2530ADF6C2EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22633151" y="34491209"/>
+          <a:ext cx="146077" cy="121732"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>42405</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>157947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>5495</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>157947</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1B1DE6-8FE6-400B-9BCD-0D55E9C19455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22645230" y="34476522"/>
+          <a:ext cx="125015" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>25066</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>148577</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="Straight Connector 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10C0B83-9D5E-4188-B3B6-A77A1E0C5B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24759987" y="35663605"/>
+          <a:ext cx="123511" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>25956</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>98800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>146184</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>44852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Connector: Elbow 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E51BE35-7323-41DE-AE79-1478787AF0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="24747701" y="35680331"/>
+          <a:ext cx="146579" cy="120228"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8459,8 +10457,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -10054,7 +12052,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H76" t="s">
         <v>258</v>
@@ -10075,7 +12073,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
         <v>375</v>
@@ -10083,7 +12081,7 @@
     </row>
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="76" t="s">
+      <c r="B78" t="s">
         <v>322</v>
       </c>
       <c r="C78" s="14">
@@ -10096,7 +12094,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
         <v>375</v>
@@ -10104,7 +12102,7 @@
     </row>
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="76" t="s">
+      <c r="B79" t="s">
         <v>326</v>
       </c>
       <c r="C79" s="14">
@@ -10117,7 +12115,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
         <v>375</v>
@@ -10125,7 +12123,7 @@
     </row>
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="76" t="s">
+      <c r="B80" t="s">
         <v>324</v>
       </c>
       <c r="C80" s="14">
@@ -10138,7 +12136,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
         <v>375</v>
@@ -10146,7 +12144,7 @@
     </row>
     <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="76" t="s">
+      <c r="B81" t="s">
         <v>325</v>
       </c>
       <c r="C81" s="14">
@@ -10158,11 +12156,11 @@
       <c r="E81" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F81" t="s">
         <v>326</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
         <v>376</v>
@@ -10170,7 +12168,7 @@
     </row>
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="76" t="s">
+      <c r="B82" t="s">
         <v>323</v>
       </c>
       <c r="C82" s="14">
@@ -10182,11 +12180,11 @@
       <c r="E82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="76" t="s">
+      <c r="F82" t="s">
         <v>325</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
         <v>376</v>
@@ -10194,7 +12192,7 @@
     </row>
     <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="76" t="s">
+      <c r="B83" t="s">
         <v>327</v>
       </c>
       <c r="C83" s="14">
@@ -10206,11 +12204,11 @@
       <c r="E83" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="76" t="s">
+      <c r="F83" t="s">
         <v>325</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H83" t="s">
         <v>376</v>
@@ -10218,7 +12216,7 @@
     </row>
     <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="76" t="s">
+      <c r="B84" t="s">
         <v>328</v>
       </c>
       <c r="C84" s="14">
@@ -10230,11 +12228,11 @@
       <c r="E84" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="76" t="s">
+      <c r="F84" t="s">
         <v>325</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
         <v>376</v>
@@ -10242,7 +12240,7 @@
     </row>
     <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="76" t="s">
+      <c r="B85" t="s">
         <v>330</v>
       </c>
       <c r="C85" s="14">
@@ -10254,11 +12252,11 @@
       <c r="E85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="76" t="s">
+      <c r="F85" t="s">
         <v>323</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
         <v>376</v>
@@ -10266,7 +12264,7 @@
     </row>
     <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="76" t="s">
+      <c r="B86" t="s">
         <v>329</v>
       </c>
       <c r="C86" s="14">
@@ -10279,7 +12277,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H86" t="s">
         <v>377</v>
@@ -10287,7 +12285,7 @@
     </row>
     <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="87" t="s">
+      <c r="B87" s="82" t="s">
         <v>361</v>
       </c>
       <c r="C87" s="14">
@@ -10300,7 +12298,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H87" t="s">
         <v>378</v>
@@ -10308,10 +12306,10 @@
     </row>
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="90" t="s">
+      <c r="B88" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="C88" s="94">
+      <c r="C88" s="87">
         <v>45012</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -10320,22 +12318,22 @@
       <c r="E88" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="76" t="s">
+      <c r="F88" t="s">
         <v>331</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="88" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="90" t="s">
+      <c r="B89" s="83" t="s">
         <v>354</v>
       </c>
-      <c r="C89" s="94">
+      <c r="C89" s="87">
         <v>45012</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -10345,18 +12343,18 @@
         <v>10</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="88" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="90" t="s">
+      <c r="B90" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="C90" s="94">
+      <c r="C90" s="87">
         <v>45012</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -10366,18 +12364,18 @@
         <v>10</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="88" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="94">
+      <c r="C91" s="87">
         <v>45012</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -10387,18 +12385,18 @@
         <v>10</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="88" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="C92" s="94">
+      <c r="C92" s="87">
         <v>45013</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -10408,18 +12406,18 @@
         <v>10</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="88" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="90" t="s">
+      <c r="B93" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="C93" s="94">
+      <c r="C93" s="87">
         <v>45013</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -10429,18 +12427,18 @@
         <v>10</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="88" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="90" t="s">
+      <c r="B94" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="C94" s="94">
+      <c r="C94" s="87">
         <v>45013</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -10450,18 +12448,18 @@
         <v>10</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="88" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="90" t="s">
+      <c r="B95" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="C95" s="94">
+      <c r="C95" s="87">
         <v>45013</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -10471,15 +12469,15 @@
         <v>10</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="88" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="78" t="s">
+      <c r="B96" s="76" t="s">
         <v>332</v>
       </c>
       <c r="C96" s="14">
@@ -10491,19 +12489,19 @@
       <c r="E96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="76" t="s">
+      <c r="F96" t="s">
         <v>361</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="86" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="76" t="s">
+      <c r="B97" t="s">
         <v>333</v>
       </c>
       <c r="C97" s="14">
@@ -10515,17 +12513,17 @@
       <c r="E97" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="78"/>
+      <c r="F97" s="76"/>
       <c r="G97" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="86" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="76" t="s">
+      <c r="B98" t="s">
         <v>334</v>
       </c>
       <c r="C98" s="14">
@@ -10537,11 +12535,11 @@
       <c r="E98" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="78" t="s">
+      <c r="F98" s="76" t="s">
         <v>332</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
         <v>382</v>
@@ -10549,7 +12547,7 @@
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="76" t="s">
+      <c r="B99" t="s">
         <v>335</v>
       </c>
       <c r="C99" s="14">
@@ -10565,7 +12563,7 @@
         <v>332</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H99" t="s">
         <v>382</v>
@@ -10573,7 +12571,7 @@
     </row>
     <row r="100" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="80" t="s">
+      <c r="B100" s="12" t="s">
         <v>336</v>
       </c>
       <c r="C100" s="14">
@@ -10589,7 +12587,7 @@
         <v>332</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H100" t="s">
         <v>382</v>
@@ -10597,7 +12595,7 @@
     </row>
     <row r="101" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="76" t="s">
+      <c r="B101" t="s">
         <v>337</v>
       </c>
       <c r="C101" s="14">
@@ -10609,11 +12607,11 @@
       <c r="E101" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="80" t="s">
+      <c r="F101" s="12" t="s">
         <v>336</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H101" t="s">
         <v>383</v>
@@ -10621,7 +12619,7 @@
     </row>
     <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="76" t="s">
+      <c r="B102" t="s">
         <v>338</v>
       </c>
       <c r="C102" s="14">
@@ -10633,11 +12631,11 @@
       <c r="E102" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="76" t="s">
+      <c r="F102" t="s">
         <v>337</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H102" t="s">
         <v>383</v>
@@ -10645,7 +12643,7 @@
     </row>
     <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="87" t="s">
+      <c r="B103" s="82" t="s">
         <v>363</v>
       </c>
       <c r="C103" s="14">
@@ -10658,7 +12656,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H103" t="s">
         <v>384</v>
@@ -10666,10 +12664,10 @@
     </row>
     <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="91" t="s">
+      <c r="B104" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="C104" s="94">
+      <c r="C104" s="87">
         <v>45016</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -10679,18 +12677,18 @@
         <v>10</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="88" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="C105" s="94">
+      <c r="C105" s="87">
         <v>45016</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -10700,18 +12698,18 @@
         <v>10</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H105" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="88" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="91" t="s">
+      <c r="B106" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="C106" s="94">
+      <c r="C106" s="87">
         <v>45016</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -10720,22 +12718,22 @@
       <c r="E106" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="93" t="s">
+      <c r="F106" s="86" t="s">
         <v>339</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="88" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="84" t="s">
         <v>366</v>
       </c>
-      <c r="C107" s="94">
+      <c r="C107" s="87">
         <v>45017</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -10744,22 +12742,22 @@
       <c r="E107" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="93" t="s">
+      <c r="F107" s="86" t="s">
         <v>340</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="85" t="s">
         <v>367</v>
       </c>
-      <c r="C108" s="94">
+      <c r="C108" s="87">
         <v>45017</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -10769,18 +12767,18 @@
         <v>10</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H108" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="91" t="s">
+      <c r="B109" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="C109" s="94">
+      <c r="C109" s="87">
         <v>45017</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -10790,18 +12788,18 @@
         <v>10</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H109" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="91" t="s">
+      <c r="B110" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="C110" s="94">
+      <c r="C110" s="87">
         <v>45017</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -10810,22 +12808,22 @@
       <c r="E110" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="93" t="s">
+      <c r="F110" s="86" t="s">
         <v>341</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H110" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="91" t="s">
+      <c r="B111" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="C111" s="94">
+      <c r="C111" s="87">
         <v>45017</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -10834,22 +12832,22 @@
       <c r="E111" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="93" t="s">
+      <c r="F111" s="86" t="s">
         <v>342</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="91" t="s">
+      <c r="B112" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="C112" s="94">
+      <c r="C112" s="87">
         <v>45017</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -10859,18 +12857,18 @@
         <v>10</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="91" t="s">
+      <c r="B113" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="C113" s="94">
+      <c r="C113" s="87">
         <v>45017</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -10880,15 +12878,15 @@
         <v>10</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="76" t="s">
+      <c r="B114" t="s">
         <v>350</v>
       </c>
       <c r="C114" s="14">
@@ -10901,7 +12899,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
         <v>387</v>
@@ -10909,7 +12907,7 @@
     </row>
     <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="76" t="s">
+      <c r="B115" t="s">
         <v>351</v>
       </c>
       <c r="C115" s="14">
@@ -10921,11 +12919,11 @@
       <c r="E115" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="76" t="s">
+      <c r="F115" t="s">
         <v>331</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
         <v>388</v>
@@ -10933,7 +12931,7 @@
     </row>
     <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="76" t="s">
+      <c r="B116" t="s">
         <v>352</v>
       </c>
       <c r="C116" s="14">
@@ -10945,7 +12943,7 @@
       <c r="E116" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="76" t="s">
+      <c r="F116" t="s">
         <v>351</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -10957,7 +12955,7 @@
     </row>
     <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="76" t="s">
+      <c r="B117" t="s">
         <v>343</v>
       </c>
       <c r="C117" s="14">
@@ -10969,7 +12967,7 @@
       <c r="E117" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="76" t="s">
+      <c r="F117" t="s">
         <v>351</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -10981,7 +12979,7 @@
     </row>
     <row r="118" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="80" t="s">
+      <c r="B118" s="12" t="s">
         <v>344</v>
       </c>
       <c r="C118" s="14">
@@ -10993,7 +12991,7 @@
       <c r="E118" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="76" t="s">
+      <c r="F118" t="s">
         <v>350</v>
       </c>
       <c r="G118" s="5" t="s">
@@ -11005,7 +13003,7 @@
     </row>
     <row r="119" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="76" t="s">
+      <c r="B119" t="s">
         <v>374</v>
       </c>
       <c r="C119" s="14">
@@ -11017,7 +13015,7 @@
       <c r="E119" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="80" t="s">
+      <c r="F119" s="12" t="s">
         <v>344</v>
       </c>
       <c r="G119" s="5" t="s">
@@ -11029,7 +13027,7 @@
     </row>
     <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="76" t="s">
+      <c r="B120" t="s">
         <v>345</v>
       </c>
       <c r="C120" s="14">
@@ -11041,7 +13039,7 @@
       <c r="E120" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="76" t="s">
+      <c r="F120" t="s">
         <v>343</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -11053,7 +13051,7 @@
     </row>
     <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="76" t="s">
+      <c r="B121" t="s">
         <v>373</v>
       </c>
       <c r="C121" s="14">
@@ -11065,7 +13063,7 @@
       <c r="E121" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="76" t="s">
+      <c r="F121" t="s">
         <v>345</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -11077,7 +13075,7 @@
     </row>
     <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="76" t="s">
+      <c r="B122" t="s">
         <v>346</v>
       </c>
       <c r="C122" s="14">
@@ -11089,7 +13087,7 @@
       <c r="E122" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="76" t="s">
+      <c r="F122" t="s">
         <v>351</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -11101,7 +13099,7 @@
     </row>
     <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="76" t="s">
+      <c r="B123" t="s">
         <v>347</v>
       </c>
       <c r="C123" s="14">
@@ -11122,7 +13120,7 @@
     </row>
     <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="76" t="s">
+      <c r="B124" t="s">
         <v>348</v>
       </c>
       <c r="C124" s="14">
@@ -11143,7 +13141,7 @@
     </row>
     <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="76" t="s">
+      <c r="B125" t="s">
         <v>349</v>
       </c>
       <c r="C125" s="14">
@@ -11164,7 +13162,7 @@
     </row>
     <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="76" t="s">
+      <c r="B126" t="s">
         <v>247</v>
       </c>
       <c r="C126" s="14">
@@ -11212,7 +13210,7 @@
     </row>
     <row r="129" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="76" t="s">
+      <c r="B129" t="s">
         <v>291</v>
       </c>
       <c r="C129" s="14">
@@ -11233,7 +13231,7 @@
     </row>
     <row r="130" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="76" t="s">
+      <c r="B130" t="s">
         <v>303</v>
       </c>
       <c r="C130" s="14">
@@ -11254,7 +13252,7 @@
     </row>
     <row r="131" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="76" t="s">
+      <c r="B131" t="s">
         <v>304</v>
       </c>
       <c r="C131" s="14">
@@ -11266,7 +13264,7 @@
       <c r="E131" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F131" s="76" t="s">
+      <c r="F131" t="s">
         <v>303</v>
       </c>
       <c r="G131" s="5" t="s">
@@ -11278,7 +13276,7 @@
     </row>
     <row r="132" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="76" t="s">
+      <c r="B132" t="s">
         <v>305</v>
       </c>
       <c r="C132" s="14">
@@ -11299,7 +13297,7 @@
     </row>
     <row r="133" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="76" t="s">
+      <c r="B133" t="s">
         <v>306</v>
       </c>
       <c r="C133" s="14">
@@ -11311,7 +13309,7 @@
       <c r="E133" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F133" s="76" t="s">
+      <c r="F133" t="s">
         <v>305</v>
       </c>
       <c r="G133" s="5" t="s">
@@ -11323,7 +13321,7 @@
     </row>
     <row r="134" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="76" t="s">
+      <c r="B134" t="s">
         <v>307</v>
       </c>
       <c r="C134" s="14">
@@ -11335,7 +13333,7 @@
       <c r="E134" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F134" s="76" t="s">
+      <c r="F134" t="s">
         <v>305</v>
       </c>
       <c r="G134" s="5" t="s">
@@ -11347,7 +13345,7 @@
     </row>
     <row r="135" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="76" t="s">
+      <c r="B135" t="s">
         <v>308</v>
       </c>
       <c r="C135" s="14">
@@ -11359,7 +13357,7 @@
       <c r="E135" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F135" s="76" t="s">
+      <c r="F135" t="s">
         <v>307</v>
       </c>
       <c r="G135" s="5" t="s">
@@ -11371,7 +13369,7 @@
     </row>
     <row r="136" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="76" t="s">
+      <c r="B136" t="s">
         <v>309</v>
       </c>
       <c r="C136" s="14">
@@ -11383,7 +13381,7 @@
       <c r="E136" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F136" s="76" t="s">
+      <c r="F136" t="s">
         <v>308</v>
       </c>
       <c r="G136" s="5" t="s">
@@ -11395,7 +13393,7 @@
     </row>
     <row r="137" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="76" t="s">
+      <c r="B137" t="s">
         <v>310</v>
       </c>
       <c r="C137" s="14">
@@ -11407,7 +13405,7 @@
       <c r="E137" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F137" s="76" t="s">
+      <c r="F137" t="s">
         <v>309</v>
       </c>
       <c r="G137" s="5" t="s">
@@ -11419,7 +13417,7 @@
     </row>
     <row r="138" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="76" t="s">
+      <c r="B138" t="s">
         <v>317</v>
       </c>
       <c r="C138" s="14">
@@ -11431,7 +13429,7 @@
       <c r="E138" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F138" s="76" t="s">
+      <c r="F138" t="s">
         <v>310</v>
       </c>
       <c r="G138" s="5" t="s">
@@ -11443,7 +13441,7 @@
     </row>
     <row r="139" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="76" t="s">
+      <c r="B139" t="s">
         <v>311</v>
       </c>
       <c r="C139" s="14">
@@ -11455,7 +13453,7 @@
       <c r="E139" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F139" s="76" t="s">
+      <c r="F139" t="s">
         <v>317</v>
       </c>
       <c r="G139" s="5" t="s">
@@ -11467,7 +13465,7 @@
     </row>
     <row r="140" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="76" t="s">
+      <c r="B140" t="s">
         <v>312</v>
       </c>
       <c r="C140" s="14">
@@ -11488,7 +13486,7 @@
     </row>
     <row r="141" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="76" t="s">
+      <c r="B141" t="s">
         <v>313</v>
       </c>
       <c r="C141" s="14">
@@ -11509,7 +13507,7 @@
     </row>
     <row r="142" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="76" t="s">
+      <c r="B142" t="s">
         <v>314</v>
       </c>
       <c r="C142" s="14">
@@ -11521,7 +13519,7 @@
       <c r="E142" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F142" s="76" t="s">
+      <c r="F142" t="s">
         <v>313</v>
       </c>
       <c r="G142" s="5" t="s">
@@ -11533,7 +13531,7 @@
     </row>
     <row r="143" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="76" t="s">
+      <c r="B143" t="s">
         <v>315</v>
       </c>
       <c r="C143" s="14">
@@ -11545,7 +13543,7 @@
       <c r="E143" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F143" s="76" t="s">
+      <c r="F143" t="s">
         <v>314</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -11557,7 +13555,7 @@
     </row>
     <row r="144" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="76" t="s">
+      <c r="B144" t="s">
         <v>316</v>
       </c>
       <c r="C144" s="14">
@@ -11578,7 +13576,7 @@
     </row>
     <row r="145" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="76" t="s">
+      <c r="B145" t="s">
         <v>247</v>
       </c>
       <c r="C145" s="14">
@@ -12017,7 +14015,7 @@
     </row>
     <row r="166" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="76" t="s">
+      <c r="B166" t="s">
         <v>261</v>
       </c>
       <c r="C166" s="14">
@@ -12038,7 +14036,7 @@
     </row>
     <row r="167" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="76" t="s">
+      <c r="B167" t="s">
         <v>263</v>
       </c>
       <c r="C167" s="14">
@@ -12059,7 +14057,7 @@
     </row>
     <row r="168" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="76" t="s">
+      <c r="B168" t="s">
         <v>264</v>
       </c>
       <c r="C168" s="14">
@@ -12080,7 +14078,7 @@
     </row>
     <row r="169" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="76" t="s">
+      <c r="B169" t="s">
         <v>265</v>
       </c>
       <c r="C169" s="14">
@@ -12092,7 +14090,7 @@
       <c r="E169" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F169" s="76" t="s">
+      <c r="F169" t="s">
         <v>264</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -12104,7 +14102,7 @@
     </row>
     <row r="170" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="76" t="s">
+      <c r="B170" t="s">
         <v>266</v>
       </c>
       <c r="C170" s="14">
@@ -12116,7 +14114,7 @@
       <c r="E170" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F170" s="76" t="s">
+      <c r="F170" t="s">
         <v>264</v>
       </c>
       <c r="G170" s="5" t="s">
@@ -12128,7 +14126,7 @@
     </row>
     <row r="171" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="76" t="s">
+      <c r="B171" t="s">
         <v>267</v>
       </c>
       <c r="C171" s="14">
@@ -12149,7 +14147,7 @@
     </row>
     <row r="172" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="76" t="s">
+      <c r="B172" t="s">
         <v>268</v>
       </c>
       <c r="C172" s="14">
@@ -12170,7 +14168,7 @@
     </row>
     <row r="173" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="76" t="s">
+      <c r="B173" t="s">
         <v>269</v>
       </c>
       <c r="C173" s="14">
@@ -12182,7 +14180,7 @@
       <c r="E173" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F173" s="76" t="s">
+      <c r="F173" t="s">
         <v>263</v>
       </c>
       <c r="G173" s="5" t="s">
@@ -12194,7 +14192,7 @@
     </row>
     <row r="174" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="76" t="s">
+      <c r="B174" t="s">
         <v>270</v>
       </c>
       <c r="C174" s="14">
@@ -12215,7 +14213,7 @@
     </row>
     <row r="175" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="76" t="s">
+      <c r="B175" t="s">
         <v>271</v>
       </c>
       <c r="C175" s="14">
@@ -12227,7 +14225,7 @@
       <c r="E175" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F175" s="76" t="s">
+      <c r="F175" t="s">
         <v>270</v>
       </c>
       <c r="G175" s="5" t="s">
@@ -12239,7 +14237,7 @@
     </row>
     <row r="176" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="76" t="s">
+      <c r="B176" t="s">
         <v>272</v>
       </c>
       <c r="C176" s="14">
@@ -12251,7 +14249,7 @@
       <c r="E176" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F176" s="76" t="s">
+      <c r="F176" t="s">
         <v>270</v>
       </c>
       <c r="G176" s="5" t="s">
@@ -12263,7 +14261,7 @@
     </row>
     <row r="177" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="79" t="s">
+      <c r="B177" s="18" t="s">
         <v>275</v>
       </c>
       <c r="C177" s="14">
@@ -12284,7 +14282,7 @@
     </row>
     <row r="178" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="77" t="s">
+      <c r="B178" s="41" t="s">
         <v>273</v>
       </c>
       <c r="C178" s="14">
@@ -12296,7 +14294,7 @@
       <c r="E178" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F178" s="79" t="s">
+      <c r="F178" s="18" t="s">
         <v>275</v>
       </c>
       <c r="G178" s="5" t="s">
@@ -12308,7 +14306,7 @@
     </row>
     <row r="179" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="80" t="s">
+      <c r="B179" s="12" t="s">
         <v>277</v>
       </c>
       <c r="C179" s="14">
@@ -12320,7 +14318,7 @@
       <c r="E179" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F179" s="77" t="s">
+      <c r="F179" s="41" t="s">
         <v>273</v>
       </c>
       <c r="G179" s="5" t="s">
@@ -12332,7 +14330,7 @@
     </row>
     <row r="180" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="77" t="s">
+      <c r="B180" s="41" t="s">
         <v>274</v>
       </c>
       <c r="C180" s="14">
@@ -12344,7 +14342,7 @@
       <c r="E180" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F180" s="80" t="s">
+      <c r="F180" s="12" t="s">
         <v>277</v>
       </c>
       <c r="G180" s="5" t="s">
@@ -12356,7 +14354,7 @@
     </row>
     <row r="181" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="76" t="s">
+      <c r="B181" t="s">
         <v>276</v>
       </c>
       <c r="C181" s="14">
@@ -12368,7 +14366,7 @@
       <c r="E181" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F181" s="77" t="s">
+      <c r="F181" s="41" t="s">
         <v>274</v>
       </c>
       <c r="G181" s="5" t="s">
@@ -12380,7 +14378,7 @@
     </row>
     <row r="182" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="76" t="s">
+      <c r="B182" t="s">
         <v>279</v>
       </c>
       <c r="C182" s="14">
@@ -12392,7 +14390,7 @@
       <c r="E182" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F182" s="76" t="s">
+      <c r="F182" t="s">
         <v>276</v>
       </c>
       <c r="G182" s="5" t="s">
@@ -12404,7 +14402,7 @@
     </row>
     <row r="183" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="76" t="s">
+      <c r="B183" t="s">
         <v>278</v>
       </c>
       <c r="C183" s="14">
@@ -12416,7 +14414,7 @@
       <c r="E183" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F183" s="76" t="s">
+      <c r="F183" t="s">
         <v>279</v>
       </c>
       <c r="G183" s="5" t="s">
@@ -12428,7 +14426,7 @@
     </row>
     <row r="184" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="76" t="s">
+      <c r="B184" t="s">
         <v>247</v>
       </c>
       <c r="C184" s="14">
@@ -12476,7 +14474,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="76" t="s">
+      <c r="B187" t="s">
         <v>290</v>
       </c>
       <c r="C187" s="14">
@@ -12497,7 +14495,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="76" t="s">
+      <c r="B188" t="s">
         <v>292</v>
       </c>
       <c r="C188" s="14">
@@ -12508,9 +14506,6 @@
       </c>
       <c r="E188" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F188" s="76" t="s">
-        <v>292</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>35</v>
@@ -12521,7 +14516,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="76" t="s">
+      <c r="B189" t="s">
         <v>293</v>
       </c>
       <c r="C189" s="14">
@@ -12532,6 +14527,9 @@
       </c>
       <c r="E189" s="5" t="s">
         <v>47</v>
+      </c>
+      <c r="F189" t="s">
+        <v>292</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>35</v>
@@ -12542,7 +14540,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="76" t="s">
+      <c r="B190" t="s">
         <v>294</v>
       </c>
       <c r="C190" s="14">
@@ -12554,7 +14552,7 @@
       <c r="E190" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F190" s="76" t="s">
+      <c r="F190" t="s">
         <v>292</v>
       </c>
       <c r="G190" s="5" t="s">
@@ -12566,7 +14564,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="76" t="s">
+      <c r="B191" t="s">
         <v>295</v>
       </c>
       <c r="C191" s="14">
@@ -12578,7 +14576,7 @@
       <c r="E191" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F191" s="76" t="s">
+      <c r="F191" t="s">
         <v>292</v>
       </c>
       <c r="G191" s="5" t="s">
@@ -12590,7 +14588,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="76" t="s">
+      <c r="B192" t="s">
         <v>296</v>
       </c>
       <c r="C192" s="14">
@@ -12611,7 +14609,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="76" t="s">
+      <c r="B193" t="s">
         <v>297</v>
       </c>
       <c r="C193" s="14">
@@ -12632,7 +14630,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="76" t="s">
+      <c r="B194" t="s">
         <v>298</v>
       </c>
       <c r="C194" s="14">
@@ -12644,7 +14642,7 @@
       <c r="E194" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F194" s="76" t="s">
+      <c r="F194" t="s">
         <v>292</v>
       </c>
       <c r="G194" s="5" t="s">
@@ -12656,7 +14654,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="76" t="s">
+      <c r="B195" t="s">
         <v>247</v>
       </c>
       <c r="C195" s="14">
@@ -13319,8 +15317,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:FJ241"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CT169" sqref="CT169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -20062,7 +22060,7 @@
     </row>
     <row r="39" spans="1:156" ht="19.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="78" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -29946,7 +31944,10 @@
       <c r="E98" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1">
+        <f>SUM(F99:F114)</f>
+        <v>20.5</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -30112,7 +32113,9 @@
       <c r="E99" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -30278,7 +32281,9 @@
       <c r="E100" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -30444,7 +32449,9 @@
       <c r="E101" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -30610,7 +32617,9 @@
       <c r="E102" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -30776,7 +32785,9 @@
       <c r="E103" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -30942,7 +32953,9 @@
       <c r="E104" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -31108,7 +33121,9 @@
       <c r="E105" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -31274,7 +33289,9 @@
       <c r="E106" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -31440,7 +33457,9 @@
       <c r="E107" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -31606,7 +33625,9 @@
       <c r="E108" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -31772,7 +33793,9 @@
       <c r="E109" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -31938,7 +33961,9 @@
       <c r="E110" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -32104,7 +34129,9 @@
       <c r="E111" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -32270,7 +34297,9 @@
       <c r="E112" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -32436,7 +34465,9 @@
       <c r="E113" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1">
+        <v>5</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -32602,7 +34633,9 @@
       <c r="E114" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1">
+        <v>7</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -32946,7 +34979,10 @@
       <c r="E116" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F116" s="1"/>
+      <c r="F116" s="1">
+        <f>SUM(F117:F135)</f>
+        <v>17.48</v>
+      </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -33110,7 +35146,7 @@
     </row>
     <row r="117" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="81" t="s">
+      <c r="B117" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C117" s="39" t="s">
@@ -33122,7 +35158,9 @@
       <c r="E117" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -33168,7 +35206,7 @@
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
-      <c r="AZ117" s="1"/>
+      <c r="AZ117" s="94"/>
       <c r="BA117" s="1"/>
       <c r="BB117" s="1"/>
       <c r="BC117" s="1"/>
@@ -33199,7 +35237,7 @@
       <c r="CB117" s="1"/>
       <c r="CC117" s="1"/>
       <c r="CD117" s="1"/>
-      <c r="CE117" s="85"/>
+      <c r="CE117" s="80"/>
       <c r="CF117" s="1"/>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
@@ -33286,7 +35324,7 @@
     </row>
     <row r="118" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="B118" s="81" t="s">
+      <c r="B118" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C118" s="39" t="s">
@@ -33298,7 +35336,9 @@
       <c r="E118" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -33462,7 +35502,7 @@
     </row>
     <row r="119" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="81" t="s">
+      <c r="B119" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C119" s="39" t="s">
@@ -33474,7 +35514,9 @@
       <c r="E119" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -33638,7 +35680,7 @@
     </row>
     <row r="120" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C120" s="39" t="s">
@@ -33650,7 +35692,9 @@
       <c r="E120" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -33814,7 +35858,7 @@
     </row>
     <row r="121" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="81" t="s">
+      <c r="B121" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C121" s="39" t="s">
@@ -33826,7 +35870,9 @@
       <c r="E121" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -33990,7 +36036,7 @@
     </row>
     <row r="122" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="81" t="s">
+      <c r="B122" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C122" s="39" t="s">
@@ -34002,7 +36048,9 @@
       <c r="E122" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F122" s="1"/>
+      <c r="F122" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -34166,7 +36214,7 @@
     </row>
     <row r="123" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="81" t="s">
+      <c r="B123" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C123" s="39" t="s">
@@ -34178,7 +36226,9 @@
       <c r="E123" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F123" s="1"/>
+      <c r="F123" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -34342,7 +36392,7 @@
     </row>
     <row r="124" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
-      <c r="B124" s="81" t="s">
+      <c r="B124" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C124" s="39" t="s">
@@ -34354,7 +36404,9 @@
       <c r="E124" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -34518,7 +36570,7 @@
     </row>
     <row r="125" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="81" t="s">
+      <c r="B125" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C125" s="39" t="s">
@@ -34530,7 +36582,9 @@
       <c r="E125" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -34694,7 +36748,7 @@
     </row>
     <row r="126" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="81" t="s">
+      <c r="B126" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C126" s="39" t="s">
@@ -34706,7 +36760,9 @@
       <c r="E126" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -34870,7 +36926,7 @@
     </row>
     <row r="127" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="81" t="s">
+      <c r="B127" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C127" s="39" t="s">
@@ -34882,7 +36938,9 @@
       <c r="E127" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -35046,7 +37104,7 @@
     </row>
     <row r="128" spans="1:166" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-      <c r="B128" s="82" t="s">
+      <c r="B128" s="77" t="s">
         <v>275</v>
       </c>
       <c r="C128" s="39" t="s">
@@ -35058,7 +37116,9 @@
       <c r="E128" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -35222,7 +37282,7 @@
     </row>
     <row r="129" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="83" t="s">
+      <c r="B129" s="78" t="s">
         <v>273</v>
       </c>
       <c r="C129" s="39" t="s">
@@ -35234,7 +37294,9 @@
       <c r="E129" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F129" s="1"/>
+      <c r="F129" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -35398,7 +37460,7 @@
     </row>
     <row r="130" spans="1:166" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="84" t="s">
+      <c r="B130" s="79" t="s">
         <v>277</v>
       </c>
       <c r="C130" s="39" t="s">
@@ -35410,7 +37472,9 @@
       <c r="E130" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -35574,7 +37638,7 @@
     </row>
     <row r="131" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
-      <c r="B131" s="83" t="s">
+      <c r="B131" s="78" t="s">
         <v>274</v>
       </c>
       <c r="C131" s="39" t="s">
@@ -35586,7 +37650,9 @@
       <c r="E131" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F131" s="1"/>
+      <c r="F131" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -35750,7 +37816,7 @@
     </row>
     <row r="132" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
-      <c r="B132" s="81" t="s">
+      <c r="B132" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C132" s="39" t="s">
@@ -35762,7 +37828,9 @@
       <c r="E132" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -35926,7 +37994,7 @@
     </row>
     <row r="133" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-      <c r="B133" s="81" t="s">
+      <c r="B133" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C133" s="39" t="s">
@@ -35938,7 +38006,9 @@
       <c r="E133" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -36102,7 +38172,7 @@
     </row>
     <row r="134" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
-      <c r="B134" s="81" t="s">
+      <c r="B134" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C134" s="39" t="s">
@@ -36114,7 +38184,9 @@
       <c r="E134" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F134" s="1"/>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -36278,7 +38350,7 @@
     </row>
     <row r="135" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
-      <c r="B135" s="81" t="s">
+      <c r="B135" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C135" s="39" t="s">
@@ -36290,7 +38362,9 @@
       <c r="E135" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F135" s="1"/>
+      <c r="F135" s="1">
+        <v>7</v>
+      </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -36634,7 +38708,10 @@
       <c r="E137" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1">
+        <f>SUM(F138:F146)</f>
+        <v>17.490000000000002</v>
+      </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -36798,7 +38875,7 @@
     </row>
     <row r="138" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
-      <c r="B138" s="81" t="s">
+      <c r="B138" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C138" s="39" t="s">
@@ -36810,7 +38887,9 @@
       <c r="E138" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F138" s="1"/>
+      <c r="F138" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -36887,9 +38966,9 @@
       <c r="CB138" s="1"/>
       <c r="CC138" s="1"/>
       <c r="CD138" s="1"/>
-      <c r="CE138" s="85"/>
+      <c r="CE138" s="80"/>
       <c r="CF138" s="1"/>
-      <c r="CG138" s="89"/>
+      <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
       <c r="CJ138" s="1"/>
@@ -36974,7 +39053,7 @@
     </row>
     <row r="139" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="B139" s="81" t="s">
+      <c r="B139" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C139" s="39" t="s">
@@ -36986,7 +39065,9 @@
       <c r="E139" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F139" s="1"/>
+      <c r="F139" s="1">
+        <v>4</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -37067,7 +39148,7 @@
       <c r="CF139" s="46"/>
       <c r="CG139" s="46"/>
       <c r="CH139" s="46"/>
-      <c r="CI139" s="47"/>
+      <c r="CI139" s="48"/>
       <c r="CJ139" s="1"/>
       <c r="CK139" s="1"/>
       <c r="CL139" s="1"/>
@@ -37148,9 +39229,9 @@
       <c r="FI139" s="1"/>
       <c r="FJ139" s="1"/>
     </row>
-    <row r="140" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="B140" s="81" t="s">
+      <c r="B140" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C140" s="39" t="s">
@@ -37162,7 +39243,9 @@
       <c r="E140" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F140" s="1"/>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -37243,8 +39326,8 @@
       <c r="CF140" s="1"/>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
-      <c r="CI140" s="1"/>
-      <c r="CJ140" s="1"/>
+      <c r="CI140" s="45"/>
+      <c r="CJ140" s="48"/>
       <c r="CK140" s="1"/>
       <c r="CL140" s="1"/>
       <c r="CM140" s="1"/>
@@ -37324,9 +39407,9 @@
       <c r="FI140" s="1"/>
       <c r="FJ140" s="1"/>
     </row>
-    <row r="141" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-      <c r="B141" s="81" t="s">
+      <c r="B141" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C141" s="39" t="s">
@@ -37338,7 +39421,9 @@
       <c r="E141" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F141" s="1"/>
+      <c r="F141" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -37420,9 +39505,9 @@
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
       <c r="CI141" s="1"/>
-      <c r="CJ141" s="1"/>
-      <c r="CK141" s="1"/>
-      <c r="CL141" s="1"/>
+      <c r="CJ141" s="45"/>
+      <c r="CK141" s="46"/>
+      <c r="CL141" s="47"/>
       <c r="CM141" s="1"/>
       <c r="CN141" s="1"/>
       <c r="CO141" s="1"/>
@@ -37500,9 +39585,9 @@
       <c r="FI141" s="1"/>
       <c r="FJ141" s="1"/>
     </row>
-    <row r="142" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
-      <c r="B142" s="81" t="s">
+      <c r="B142" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C142" s="39" t="s">
@@ -37514,7 +39599,9 @@
       <c r="E142" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -37596,9 +39683,9 @@
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
       <c r="CI142" s="1"/>
-      <c r="CJ142" s="1"/>
-      <c r="CK142" s="1"/>
-      <c r="CL142" s="1"/>
+      <c r="CJ142" s="45"/>
+      <c r="CK142" s="46"/>
+      <c r="CL142" s="47"/>
       <c r="CM142" s="1"/>
       <c r="CN142" s="1"/>
       <c r="CO142" s="1"/>
@@ -37676,9 +39763,9 @@
       <c r="FI142" s="1"/>
       <c r="FJ142" s="1"/>
     </row>
-    <row r="143" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
-      <c r="B143" s="81" t="s">
+      <c r="B143" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C143" s="39" t="s">
@@ -37690,7 +39777,9 @@
       <c r="E143" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F143" s="1"/>
+      <c r="F143" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -37772,9 +39861,9 @@
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
       <c r="CI143" s="1"/>
-      <c r="CJ143" s="1"/>
-      <c r="CK143" s="1"/>
-      <c r="CL143" s="1"/>
+      <c r="CJ143" s="45"/>
+      <c r="CK143" s="46"/>
+      <c r="CL143" s="48"/>
       <c r="CM143" s="1"/>
       <c r="CN143" s="1"/>
       <c r="CO143" s="1"/>
@@ -37852,9 +39941,9 @@
       <c r="FI143" s="1"/>
       <c r="FJ143" s="1"/>
     </row>
-    <row r="144" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
-      <c r="B144" s="81" t="s">
+      <c r="B144" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C144" s="39" t="s">
@@ -37866,7 +39955,9 @@
       <c r="E144" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1">
+        <v>2</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -37950,10 +40041,10 @@
       <c r="CI144" s="1"/>
       <c r="CJ144" s="1"/>
       <c r="CK144" s="1"/>
-      <c r="CL144" s="1"/>
-      <c r="CM144" s="1"/>
-      <c r="CN144" s="1"/>
-      <c r="CO144" s="1"/>
+      <c r="CL144" s="45"/>
+      <c r="CM144" s="46"/>
+      <c r="CN144" s="46"/>
+      <c r="CO144" s="48"/>
       <c r="CP144" s="1"/>
       <c r="CQ144" s="1"/>
       <c r="CR144" s="1"/>
@@ -38028,9 +40119,9 @@
       <c r="FI144" s="1"/>
       <c r="FJ144" s="1"/>
     </row>
-    <row r="145" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
-      <c r="B145" s="81" t="s">
+      <c r="B145" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C145" s="39" t="s">
@@ -38042,7 +40133,9 @@
       <c r="E145" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F145" s="1"/>
+      <c r="F145" s="1">
+        <v>2</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -38129,9 +40222,9 @@
       <c r="CL145" s="1"/>
       <c r="CM145" s="1"/>
       <c r="CN145" s="1"/>
-      <c r="CO145" s="1"/>
-      <c r="CP145" s="1"/>
-      <c r="CQ145" s="1"/>
+      <c r="CO145" s="45"/>
+      <c r="CP145" s="46"/>
+      <c r="CQ145" s="48"/>
       <c r="CR145" s="1"/>
       <c r="CS145" s="1"/>
       <c r="CT145" s="1"/>
@@ -38204,9 +40297,9 @@
       <c r="FI145" s="1"/>
       <c r="FJ145" s="1"/>
     </row>
-    <row r="146" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
-      <c r="B146" s="81" t="s">
+      <c r="B146" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C146" s="39" t="s">
@@ -38218,7 +40311,9 @@
       <c r="E146" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1">
+        <v>7</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -38307,12 +40402,12 @@
       <c r="CN146" s="1"/>
       <c r="CO146" s="1"/>
       <c r="CP146" s="1"/>
-      <c r="CQ146" s="1"/>
-      <c r="CR146" s="1"/>
-      <c r="CS146" s="1"/>
-      <c r="CT146" s="1"/>
-      <c r="CU146" s="1"/>
-      <c r="CV146" s="1"/>
+      <c r="CQ146" s="45"/>
+      <c r="CR146" s="46"/>
+      <c r="CS146" s="46"/>
+      <c r="CT146" s="46"/>
+      <c r="CU146" s="46"/>
+      <c r="CV146" s="47"/>
       <c r="CW146" s="1"/>
       <c r="CX146" s="1"/>
       <c r="CY146" s="1"/>
@@ -38548,7 +40643,7 @@
       <c r="FI147" s="1"/>
       <c r="FJ147" s="1"/>
     </row>
-    <row r="148" spans="1:166" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:166" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33" t="s">
         <v>45</v>
@@ -38562,7 +40657,10 @@
       <c r="E148" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1">
+        <f>SUM(F149:F165)</f>
+        <v>18.04</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -38724,9 +40822,9 @@
       <c r="FI148" s="1"/>
       <c r="FJ148" s="1"/>
     </row>
-    <row r="149" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
-      <c r="B149" s="81" t="s">
+      <c r="B149" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C149" s="39" t="s">
@@ -38738,7 +40836,9 @@
       <c r="E149" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F149" s="1"/>
+      <c r="F149" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -38815,7 +40915,7 @@
       <c r="CB149" s="1"/>
       <c r="CC149" s="1"/>
       <c r="CD149" s="1"/>
-      <c r="CE149" s="1"/>
+      <c r="CE149" s="80"/>
       <c r="CF149" s="1"/>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
@@ -38900,9 +41000,9 @@
       <c r="FI149" s="1"/>
       <c r="FJ149" s="1"/>
     </row>
-    <row r="150" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
-      <c r="B150" s="81" t="s">
+      <c r="B150" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C150" s="39" t="s">
@@ -38914,7 +41014,9 @@
       <c r="E150" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -38991,8 +41093,8 @@
       <c r="CB150" s="1"/>
       <c r="CC150" s="1"/>
       <c r="CD150" s="1"/>
-      <c r="CE150" s="1"/>
-      <c r="CF150" s="1"/>
+      <c r="CE150" s="45"/>
+      <c r="CF150" s="47"/>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
       <c r="CI150" s="1"/>
@@ -39076,9 +41178,9 @@
       <c r="FI150" s="1"/>
       <c r="FJ150" s="1"/>
     </row>
-    <row r="151" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-      <c r="B151" s="81" t="s">
+      <c r="B151" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C151" s="39" t="s">
@@ -39090,7 +41192,9 @@
       <c r="E151" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F151" s="1"/>
+      <c r="F151" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -39167,8 +41271,8 @@
       <c r="CB151" s="1"/>
       <c r="CC151" s="1"/>
       <c r="CD151" s="1"/>
-      <c r="CE151" s="1"/>
-      <c r="CF151" s="1"/>
+      <c r="CE151" s="45"/>
+      <c r="CF151" s="47"/>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
       <c r="CI151" s="1"/>
@@ -39252,9 +41356,9 @@
       <c r="FI151" s="1"/>
       <c r="FJ151" s="1"/>
     </row>
-    <row r="152" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
-      <c r="B152" s="81" t="s">
+      <c r="B152" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C152" s="39" t="s">
@@ -39266,7 +41370,9 @@
       <c r="E152" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F152" s="1"/>
+      <c r="F152" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -39343,8 +41449,8 @@
       <c r="CB152" s="1"/>
       <c r="CC152" s="1"/>
       <c r="CD152" s="1"/>
-      <c r="CE152" s="1"/>
-      <c r="CF152" s="1"/>
+      <c r="CE152" s="45"/>
+      <c r="CF152" s="47"/>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
       <c r="CI152" s="1"/>
@@ -39428,9 +41534,9 @@
       <c r="FI152" s="1"/>
       <c r="FJ152" s="1"/>
     </row>
-    <row r="153" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
-      <c r="B153" s="81" t="s">
+      <c r="B153" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C153" s="39" t="s">
@@ -39442,7 +41548,9 @@
       <c r="E153" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -39519,8 +41627,8 @@
       <c r="CB153" s="1"/>
       <c r="CC153" s="1"/>
       <c r="CD153" s="1"/>
-      <c r="CE153" s="1"/>
-      <c r="CF153" s="1"/>
+      <c r="CE153" s="45"/>
+      <c r="CF153" s="48"/>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
       <c r="CI153" s="1"/>
@@ -39604,9 +41712,9 @@
       <c r="FI153" s="1"/>
       <c r="FJ153" s="1"/>
     </row>
-    <row r="154" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
-      <c r="B154" s="81" t="s">
+      <c r="B154" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C154" s="39" t="s">
@@ -39618,7 +41726,9 @@
       <c r="E154" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F154" s="1"/>
+      <c r="F154" s="1">
+        <v>0.65</v>
+      </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -39696,11 +41806,11 @@
       <c r="CC154" s="1"/>
       <c r="CD154" s="1"/>
       <c r="CE154" s="1"/>
-      <c r="CF154" s="1"/>
-      <c r="CG154" s="1"/>
-      <c r="CH154" s="1"/>
-      <c r="CI154" s="1"/>
-      <c r="CJ154" s="1"/>
+      <c r="CF154" s="45"/>
+      <c r="CG154" s="46"/>
+      <c r="CH154" s="46"/>
+      <c r="CI154" s="46"/>
+      <c r="CJ154" s="47"/>
       <c r="CK154" s="1"/>
       <c r="CL154" s="1"/>
       <c r="CM154" s="1"/>
@@ -39780,9 +41890,9 @@
       <c r="FI154" s="1"/>
       <c r="FJ154" s="1"/>
     </row>
-    <row r="155" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
-      <c r="B155" s="81" t="s">
+      <c r="B155" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C155" s="39" t="s">
@@ -39794,7 +41904,9 @@
       <c r="E155" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F155" s="1"/>
+      <c r="F155" s="1">
+        <v>0.65</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -39872,11 +41984,11 @@
       <c r="CC155" s="1"/>
       <c r="CD155" s="1"/>
       <c r="CE155" s="1"/>
-      <c r="CF155" s="1"/>
-      <c r="CG155" s="1"/>
-      <c r="CH155" s="1"/>
-      <c r="CI155" s="1"/>
-      <c r="CJ155" s="1"/>
+      <c r="CF155" s="45"/>
+      <c r="CG155" s="46"/>
+      <c r="CH155" s="46"/>
+      <c r="CI155" s="46"/>
+      <c r="CJ155" s="47"/>
       <c r="CK155" s="1"/>
       <c r="CL155" s="1"/>
       <c r="CM155" s="1"/>
@@ -39956,9 +42068,9 @@
       <c r="FI155" s="1"/>
       <c r="FJ155" s="1"/>
     </row>
-    <row r="156" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
-      <c r="B156" s="81" t="s">
+      <c r="B156" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C156" s="39" t="s">
@@ -39970,7 +42082,9 @@
       <c r="E156" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1">
+        <v>0.65</v>
+      </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -40048,11 +42162,11 @@
       <c r="CC156" s="1"/>
       <c r="CD156" s="1"/>
       <c r="CE156" s="1"/>
-      <c r="CF156" s="1"/>
-      <c r="CG156" s="1"/>
-      <c r="CH156" s="1"/>
-      <c r="CI156" s="1"/>
-      <c r="CJ156" s="1"/>
+      <c r="CF156" s="45"/>
+      <c r="CG156" s="46"/>
+      <c r="CH156" s="46"/>
+      <c r="CI156" s="46"/>
+      <c r="CJ156" s="47"/>
       <c r="CK156" s="1"/>
       <c r="CL156" s="1"/>
       <c r="CM156" s="1"/>
@@ -40132,9 +42246,9 @@
       <c r="FI156" s="1"/>
       <c r="FJ156" s="1"/>
     </row>
-    <row r="157" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
-      <c r="B157" s="81" t="s">
+      <c r="B157" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C157" s="39" t="s">
@@ -40146,7 +42260,9 @@
       <c r="E157" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F157" s="1"/>
+      <c r="F157" s="1">
+        <v>0.65</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -40224,11 +42340,11 @@
       <c r="CC157" s="1"/>
       <c r="CD157" s="1"/>
       <c r="CE157" s="1"/>
-      <c r="CF157" s="1"/>
-      <c r="CG157" s="1"/>
-      <c r="CH157" s="1"/>
-      <c r="CI157" s="1"/>
-      <c r="CJ157" s="1"/>
+      <c r="CF157" s="45"/>
+      <c r="CG157" s="46"/>
+      <c r="CH157" s="46"/>
+      <c r="CI157" s="46"/>
+      <c r="CJ157" s="47"/>
       <c r="CK157" s="1"/>
       <c r="CL157" s="1"/>
       <c r="CM157" s="1"/>
@@ -40308,9 +42424,9 @@
       <c r="FI157" s="1"/>
       <c r="FJ157" s="1"/>
     </row>
-    <row r="158" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
-      <c r="B158" s="81" t="s">
+      <c r="B158" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C158" s="39" t="s">
@@ -40322,7 +42438,9 @@
       <c r="E158" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F158" s="1"/>
+      <c r="F158" s="1">
+        <v>0.65</v>
+      </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -40400,11 +42518,11 @@
       <c r="CC158" s="1"/>
       <c r="CD158" s="1"/>
       <c r="CE158" s="1"/>
-      <c r="CF158" s="1"/>
-      <c r="CG158" s="1"/>
-      <c r="CH158" s="1"/>
-      <c r="CI158" s="1"/>
-      <c r="CJ158" s="1"/>
+      <c r="CF158" s="45"/>
+      <c r="CG158" s="46"/>
+      <c r="CH158" s="46"/>
+      <c r="CI158" s="46"/>
+      <c r="CJ158" s="47"/>
       <c r="CK158" s="1"/>
       <c r="CL158" s="1"/>
       <c r="CM158" s="1"/>
@@ -40484,9 +42602,9 @@
       <c r="FI158" s="1"/>
       <c r="FJ158" s="1"/>
     </row>
-    <row r="159" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
-      <c r="B159" s="81" t="s">
+      <c r="B159" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C159" s="39" t="s">
@@ -40498,7 +42616,9 @@
       <c r="E159" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F159" s="1"/>
+      <c r="F159" s="1">
+        <v>0.65</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -40576,11 +42696,11 @@
       <c r="CC159" s="1"/>
       <c r="CD159" s="1"/>
       <c r="CE159" s="1"/>
-      <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
-      <c r="CH159" s="1"/>
-      <c r="CI159" s="1"/>
-      <c r="CJ159" s="1"/>
+      <c r="CF159" s="45"/>
+      <c r="CG159" s="46"/>
+      <c r="CH159" s="46"/>
+      <c r="CI159" s="46"/>
+      <c r="CJ159" s="47"/>
       <c r="CK159" s="1"/>
       <c r="CL159" s="1"/>
       <c r="CM159" s="1"/>
@@ -40660,9 +42780,9 @@
       <c r="FI159" s="1"/>
       <c r="FJ159" s="1"/>
     </row>
-    <row r="160" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
-      <c r="B160" s="81" t="s">
+      <c r="B160" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C160" s="39" t="s">
@@ -40674,7 +42794,9 @@
       <c r="E160" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F160" s="1"/>
+      <c r="F160" s="1">
+        <v>0.65</v>
+      </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -40752,11 +42874,11 @@
       <c r="CC160" s="1"/>
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
-      <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-      <c r="CH160" s="1"/>
-      <c r="CI160" s="1"/>
-      <c r="CJ160" s="1"/>
+      <c r="CF160" s="45"/>
+      <c r="CG160" s="46"/>
+      <c r="CH160" s="46"/>
+      <c r="CI160" s="46"/>
+      <c r="CJ160" s="48"/>
       <c r="CK160" s="1"/>
       <c r="CL160" s="1"/>
       <c r="CM160" s="1"/>
@@ -40836,9 +42958,9 @@
       <c r="FI160" s="1"/>
       <c r="FJ160" s="1"/>
     </row>
-    <row r="161" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="81" t="s">
+      <c r="B161" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C161" s="39" t="s">
@@ -40850,7 +42972,9 @@
       <c r="E161" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F161" s="1"/>
+      <c r="F161" s="1">
+        <v>1.33</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -40932,11 +43056,11 @@
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
       <c r="CI161" s="1"/>
-      <c r="CJ161" s="1"/>
-      <c r="CK161" s="1"/>
-      <c r="CL161" s="1"/>
-      <c r="CM161" s="1"/>
-      <c r="CN161" s="1"/>
+      <c r="CJ161" s="45"/>
+      <c r="CK161" s="46"/>
+      <c r="CL161" s="46"/>
+      <c r="CM161" s="46"/>
+      <c r="CN161" s="47"/>
       <c r="CO161" s="1"/>
       <c r="CP161" s="1"/>
       <c r="CQ161" s="1"/>
@@ -41012,9 +43136,9 @@
       <c r="FI161" s="1"/>
       <c r="FJ161" s="1"/>
     </row>
-    <row r="162" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
-      <c r="B162" s="81" t="s">
+      <c r="B162" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C162" s="39" t="s">
@@ -41026,7 +43150,9 @@
       <c r="E162" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F162" s="1"/>
+      <c r="F162" s="1">
+        <v>1.33</v>
+      </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -41108,11 +43234,11 @@
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
       <c r="CI162" s="1"/>
-      <c r="CJ162" s="1"/>
-      <c r="CK162" s="1"/>
-      <c r="CL162" s="1"/>
-      <c r="CM162" s="1"/>
-      <c r="CN162" s="1"/>
+      <c r="CJ162" s="45"/>
+      <c r="CK162" s="46"/>
+      <c r="CL162" s="46"/>
+      <c r="CM162" s="46"/>
+      <c r="CN162" s="47"/>
       <c r="CO162" s="1"/>
       <c r="CP162" s="1"/>
       <c r="CQ162" s="1"/>
@@ -41188,9 +43314,9 @@
       <c r="FI162" s="1"/>
       <c r="FJ162" s="1"/>
     </row>
-    <row r="163" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
-      <c r="B163" s="81" t="s">
+      <c r="B163" s="1" t="s">
         <v>315</v>
       </c>
       <c r="C163" s="39" t="s">
@@ -41202,7 +43328,9 @@
       <c r="E163" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F163" s="1"/>
+      <c r="F163" s="1">
+        <v>1.33</v>
+      </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -41284,11 +43412,11 @@
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
       <c r="CI163" s="1"/>
-      <c r="CJ163" s="1"/>
-      <c r="CK163" s="1"/>
-      <c r="CL163" s="1"/>
-      <c r="CM163" s="1"/>
-      <c r="CN163" s="1"/>
+      <c r="CJ163" s="45"/>
+      <c r="CK163" s="46"/>
+      <c r="CL163" s="46"/>
+      <c r="CM163" s="46"/>
+      <c r="CN163" s="48"/>
       <c r="CO163" s="1"/>
       <c r="CP163" s="1"/>
       <c r="CQ163" s="1"/>
@@ -41364,9 +43492,9 @@
       <c r="FI163" s="1"/>
       <c r="FJ163" s="1"/>
     </row>
-    <row r="164" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
-      <c r="B164" s="81" t="s">
+      <c r="B164" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C164" s="39" t="s">
@@ -41378,7 +43506,9 @@
       <c r="E164" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F164" s="1"/>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -41464,8 +43594,8 @@
       <c r="CK164" s="1"/>
       <c r="CL164" s="1"/>
       <c r="CM164" s="1"/>
-      <c r="CN164" s="1"/>
-      <c r="CO164" s="1"/>
+      <c r="CN164" s="45"/>
+      <c r="CO164" s="48"/>
       <c r="CP164" s="1"/>
       <c r="CQ164" s="1"/>
       <c r="CR164" s="1"/>
@@ -41540,9 +43670,9 @@
       <c r="FI164" s="1"/>
       <c r="FJ164" s="1"/>
     </row>
-    <row r="165" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
-      <c r="B165" s="81" t="s">
+      <c r="B165" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C165" s="39" t="s">
@@ -41554,7 +43684,9 @@
       <c r="E165" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F165" s="1"/>
+      <c r="F165" s="1">
+        <v>7</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -41641,14 +43773,14 @@
       <c r="CL165" s="1"/>
       <c r="CM165" s="1"/>
       <c r="CN165" s="1"/>
-      <c r="CO165" s="1"/>
-      <c r="CP165" s="1"/>
-      <c r="CQ165" s="1"/>
-      <c r="CR165" s="1"/>
-      <c r="CS165" s="1"/>
-      <c r="CT165" s="1"/>
-      <c r="CU165" s="1"/>
-      <c r="CV165" s="1"/>
+      <c r="CO165" s="45"/>
+      <c r="CP165" s="46"/>
+      <c r="CQ165" s="46"/>
+      <c r="CR165" s="46"/>
+      <c r="CS165" s="46"/>
+      <c r="CT165" s="46"/>
+      <c r="CU165" s="46"/>
+      <c r="CV165" s="47"/>
       <c r="CW165" s="1"/>
       <c r="CX165" s="1"/>
       <c r="CY165" s="1"/>
@@ -41884,7 +44016,7 @@
       <c r="FI166" s="1"/>
       <c r="FJ166" s="1"/>
     </row>
-    <row r="167" spans="1:166" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:166" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="33" t="s">
         <v>50</v>
@@ -41898,7 +44030,9 @@
       <c r="E167" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F167" s="1"/>
+      <c r="F167" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -42060,7 +44194,7 @@
       <c r="FI167" s="1"/>
       <c r="FJ167" s="1"/>
     </row>
-    <row r="168" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>262</v>
@@ -42074,7 +44208,9 @@
       <c r="E168" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F168" s="1"/>
+      <c r="F168" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -42170,7 +44306,7 @@
       <c r="CU168" s="1"/>
       <c r="CV168" s="1"/>
       <c r="CW168" s="1"/>
-      <c r="CX168" s="1"/>
+      <c r="CX168" s="80"/>
       <c r="CY168" s="1"/>
       <c r="CZ168" s="1"/>
       <c r="DA168" s="1"/>
@@ -42236,7 +44372,7 @@
       <c r="FI168" s="1"/>
       <c r="FJ168" s="1"/>
     </row>
-    <row r="169" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
         <v>53</v>
@@ -42250,7 +44386,9 @@
       <c r="E169" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -42346,8 +44484,8 @@
       <c r="CU169" s="1"/>
       <c r="CV169" s="1"/>
       <c r="CW169" s="1"/>
-      <c r="CX169" s="1"/>
-      <c r="CY169" s="1"/>
+      <c r="CX169" s="45"/>
+      <c r="CY169" s="47"/>
       <c r="CZ169" s="1"/>
       <c r="DA169" s="1"/>
       <c r="DB169" s="1"/>
@@ -42580,7 +44718,7 @@
       <c r="FI170" s="1"/>
       <c r="FJ170" s="1"/>
     </row>
-    <row r="171" spans="1:166" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:166" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="33" t="s">
         <v>44</v>
@@ -42594,7 +44732,10 @@
       <c r="E171" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F171" s="1"/>
+      <c r="F171" s="1">
+        <f>SUM(F172:F221)</f>
+        <v>35.03</v>
+      </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -42756,7 +44897,7 @@
       <c r="FI171" s="1"/>
       <c r="FJ171" s="1"/>
     </row>
-    <row r="172" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:166" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="2" t="s">
         <v>256</v>
@@ -42770,7 +44911,9 @@
       <c r="E172" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F172" s="1"/>
+      <c r="F172" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -42821,8 +44964,8 @@
       <c r="BB172" s="1"/>
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
-      <c r="BE172" s="1"/>
-      <c r="BF172" s="1"/>
+      <c r="BE172" s="45"/>
+      <c r="BF172" s="47"/>
       <c r="BG172" s="1"/>
       <c r="BH172" s="1"/>
       <c r="BI172" s="1"/>
@@ -42932,9 +45075,9 @@
       <c r="FI172" s="1"/>
       <c r="FJ172" s="1"/>
     </row>
-    <row r="173" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
-      <c r="B173" s="81" t="s">
+      <c r="B173" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C173" s="39" t="s">
@@ -42946,7 +45089,9 @@
       <c r="E173" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F173" s="1"/>
+      <c r="F173" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -42997,8 +45142,8 @@
       <c r="BB173" s="1"/>
       <c r="BC173" s="1"/>
       <c r="BD173" s="1"/>
-      <c r="BE173" s="1"/>
-      <c r="BF173" s="1"/>
+      <c r="BE173" s="45"/>
+      <c r="BF173" s="47"/>
       <c r="BG173" s="1"/>
       <c r="BH173" s="1"/>
       <c r="BI173" s="1"/>
@@ -43104,9 +45249,9 @@
       <c r="FE173" s="1"/>
       <c r="FF173" s="1"/>
     </row>
-    <row r="174" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
-      <c r="B174" s="81" t="s">
+      <c r="B174" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C174" s="39" t="s">
@@ -43118,7 +45263,9 @@
       <c r="E174" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F174" s="1"/>
+      <c r="F174" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -43169,8 +45316,8 @@
       <c r="BB174" s="1"/>
       <c r="BC174" s="1"/>
       <c r="BD174" s="1"/>
-      <c r="BE174" s="1"/>
-      <c r="BF174" s="1"/>
+      <c r="BE174" s="45"/>
+      <c r="BF174" s="47"/>
       <c r="BG174" s="1"/>
       <c r="BH174" s="1"/>
       <c r="BI174" s="1"/>
@@ -43276,9 +45423,9 @@
       <c r="FE174" s="1"/>
       <c r="FF174" s="1"/>
     </row>
-    <row r="175" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
-      <c r="B175" s="81" t="s">
+      <c r="B175" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C175" s="39" t="s">
@@ -43290,7 +45437,9 @@
       <c r="E175" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F175" s="1"/>
+      <c r="F175" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -43341,8 +45490,8 @@
       <c r="BB175" s="1"/>
       <c r="BC175" s="1"/>
       <c r="BD175" s="1"/>
-      <c r="BE175" s="1"/>
-      <c r="BF175" s="1"/>
+      <c r="BE175" s="45"/>
+      <c r="BF175" s="48"/>
       <c r="BG175" s="1"/>
       <c r="BH175" s="1"/>
       <c r="BI175" s="1"/>
@@ -43448,9 +45597,9 @@
       <c r="FE175" s="1"/>
       <c r="FF175" s="1"/>
     </row>
-    <row r="176" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:166" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C176" s="39" t="s">
@@ -43462,7 +45611,9 @@
       <c r="E176" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F176" s="1"/>
+      <c r="F176" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -43514,8 +45665,8 @@
       <c r="BC176" s="1"/>
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
-      <c r="BF176" s="1"/>
-      <c r="BG176" s="1"/>
+      <c r="BF176" s="45"/>
+      <c r="BG176" s="47"/>
       <c r="BH176" s="1"/>
       <c r="BI176" s="1"/>
       <c r="BJ176" s="1"/>
@@ -43620,9 +45771,9 @@
       <c r="FE176" s="1"/>
       <c r="FF176" s="1"/>
     </row>
-    <row r="177" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
-      <c r="B177" s="81" t="s">
+      <c r="B177" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C177" s="39" t="s">
@@ -43634,7 +45785,9 @@
       <c r="E177" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F177" s="1"/>
+      <c r="F177" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -43686,8 +45839,8 @@
       <c r="BC177" s="1"/>
       <c r="BD177" s="1"/>
       <c r="BE177" s="1"/>
-      <c r="BF177" s="1"/>
-      <c r="BG177" s="1"/>
+      <c r="BF177" s="45"/>
+      <c r="BG177" s="47"/>
       <c r="BH177" s="1"/>
       <c r="BI177" s="1"/>
       <c r="BJ177" s="1"/>
@@ -43792,9 +45945,9 @@
       <c r="FE177" s="1"/>
       <c r="FF177" s="1"/>
     </row>
-    <row r="178" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
-      <c r="B178" s="81" t="s">
+      <c r="B178" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C178" s="39" t="s">
@@ -43806,7 +45959,9 @@
       <c r="E178" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F178" s="1"/>
+      <c r="F178" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -43858,8 +46013,8 @@
       <c r="BC178" s="1"/>
       <c r="BD178" s="1"/>
       <c r="BE178" s="1"/>
-      <c r="BF178" s="1"/>
-      <c r="BG178" s="1"/>
+      <c r="BF178" s="45"/>
+      <c r="BG178" s="47"/>
       <c r="BH178" s="1"/>
       <c r="BI178" s="1"/>
       <c r="BJ178" s="1"/>
@@ -43964,9 +46119,9 @@
       <c r="FE178" s="1"/>
       <c r="FF178" s="1"/>
     </row>
-    <row r="179" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
-      <c r="B179" s="81" t="s">
+      <c r="B179" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C179" s="39" t="s">
@@ -43978,7 +46133,9 @@
       <c r="E179" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F179" s="1"/>
+      <c r="F179" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -44030,8 +46187,8 @@
       <c r="BC179" s="1"/>
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
-      <c r="BF179" s="1"/>
-      <c r="BG179" s="1"/>
+      <c r="BF179" s="45"/>
+      <c r="BG179" s="47"/>
       <c r="BH179" s="1"/>
       <c r="BI179" s="1"/>
       <c r="BJ179" s="1"/>
@@ -44136,9 +46293,9 @@
       <c r="FE179" s="1"/>
       <c r="FF179" s="1"/>
     </row>
-    <row r="180" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
-      <c r="B180" s="81" t="s">
+      <c r="B180" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C180" s="39" t="s">
@@ -44150,7 +46307,9 @@
       <c r="E180" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F180" s="1"/>
+      <c r="F180" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -44202,8 +46361,8 @@
       <c r="BC180" s="1"/>
       <c r="BD180" s="1"/>
       <c r="BE180" s="1"/>
-      <c r="BF180" s="1"/>
-      <c r="BG180" s="1"/>
+      <c r="BF180" s="45"/>
+      <c r="BG180" s="48"/>
       <c r="BH180" s="1"/>
       <c r="BI180" s="1"/>
       <c r="BJ180" s="1"/>
@@ -44308,9 +46467,9 @@
       <c r="FE180" s="1"/>
       <c r="FF180" s="1"/>
     </row>
-    <row r="181" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
-      <c r="B181" s="81" t="s">
+      <c r="B181" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C181" s="39" t="s">
@@ -44322,7 +46481,9 @@
       <c r="E181" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F181" s="1"/>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -44375,8 +46536,8 @@
       <c r="BD181" s="1"/>
       <c r="BE181" s="1"/>
       <c r="BF181" s="1"/>
-      <c r="BG181" s="1"/>
-      <c r="BH181" s="1"/>
+      <c r="BG181" s="45"/>
+      <c r="BH181" s="48"/>
       <c r="BI181" s="1"/>
       <c r="BJ181" s="1"/>
       <c r="BK181" s="1"/>
@@ -44480,9 +46641,9 @@
       <c r="FE181" s="1"/>
       <c r="FF181" s="1"/>
     </row>
-    <row r="182" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
-      <c r="B182" s="86" t="s">
+      <c r="B182" s="81" t="s">
         <v>361</v>
       </c>
       <c r="C182" s="39" t="s">
@@ -44548,9 +46709,9 @@
       <c r="BE182" s="1"/>
       <c r="BF182" s="1"/>
       <c r="BG182" s="1"/>
-      <c r="BH182" s="1"/>
-      <c r="BI182" s="1"/>
-      <c r="BJ182" s="1"/>
+      <c r="BH182" s="45"/>
+      <c r="BI182" s="46"/>
+      <c r="BJ182" s="47"/>
       <c r="BK182" s="1"/>
       <c r="BL182" s="1"/>
       <c r="BM182" s="1"/>
@@ -44652,21 +46813,23 @@
       <c r="FE182" s="1"/>
       <c r="FF182" s="1"/>
     </row>
-    <row r="183" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
-      <c r="B183" s="96" t="s">
+      <c r="B183" s="89" t="s">
         <v>353</v>
       </c>
       <c r="C183" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D183" s="100" t="s">
+      <c r="D183" s="93" t="s">
         <v>379</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F183" s="1"/>
+      <c r="F183" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -44720,8 +46883,8 @@
       <c r="BE183" s="1"/>
       <c r="BF183" s="1"/>
       <c r="BG183" s="1"/>
-      <c r="BH183" s="1"/>
-      <c r="BI183" s="1"/>
+      <c r="BH183" s="95"/>
+      <c r="BI183" s="96"/>
       <c r="BJ183" s="1"/>
       <c r="BK183" s="1"/>
       <c r="BL183" s="1"/>
@@ -44824,21 +46987,23 @@
       <c r="FE183" s="1"/>
       <c r="FF183" s="1"/>
     </row>
-    <row r="184" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
-      <c r="B184" s="96" t="s">
+      <c r="B184" s="89" t="s">
         <v>354</v>
       </c>
       <c r="C184" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D184" s="100" t="s">
+      <c r="D184" s="93" t="s">
         <v>379</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F184" s="1"/>
+      <c r="F184" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -44892,8 +47057,8 @@
       <c r="BE184" s="1"/>
       <c r="BF184" s="1"/>
       <c r="BG184" s="1"/>
-      <c r="BH184" s="1"/>
-      <c r="BI184" s="1"/>
+      <c r="BH184" s="95"/>
+      <c r="BI184" s="96"/>
       <c r="BJ184" s="1"/>
       <c r="BK184" s="1"/>
       <c r="BL184" s="1"/>
@@ -44996,21 +47161,23 @@
       <c r="FE184" s="1"/>
       <c r="FF184" s="1"/>
     </row>
-    <row r="185" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" s="96" t="s">
+      <c r="B185" s="89" t="s">
         <v>355</v>
       </c>
       <c r="C185" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="100" t="s">
+      <c r="D185" s="93" t="s">
         <v>379</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F185" s="1"/>
+      <c r="F185" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -45064,8 +47231,8 @@
       <c r="BE185" s="1"/>
       <c r="BF185" s="1"/>
       <c r="BG185" s="1"/>
-      <c r="BH185" s="1"/>
-      <c r="BI185" s="1"/>
+      <c r="BH185" s="95"/>
+      <c r="BI185" s="96"/>
       <c r="BJ185" s="1"/>
       <c r="BK185" s="1"/>
       <c r="BL185" s="1"/>
@@ -45168,21 +47335,23 @@
       <c r="FE185" s="1"/>
       <c r="FF185" s="1"/>
     </row>
-    <row r="186" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
-      <c r="B186" s="96" t="s">
+      <c r="B186" s="89" t="s">
         <v>356</v>
       </c>
       <c r="C186" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D186" s="100" t="s">
+      <c r="D186" s="93" t="s">
         <v>379</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F186" s="1"/>
+      <c r="F186" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -45236,8 +47405,8 @@
       <c r="BE186" s="1"/>
       <c r="BF186" s="1"/>
       <c r="BG186" s="1"/>
-      <c r="BH186" s="1"/>
-      <c r="BI186" s="1"/>
+      <c r="BH186" s="95"/>
+      <c r="BI186" s="97"/>
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
       <c r="BL186" s="1"/>
@@ -45340,21 +47509,23 @@
       <c r="FE186" s="1"/>
       <c r="FF186" s="1"/>
     </row>
-    <row r="187" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
-      <c r="B187" s="96" t="s">
+      <c r="B187" s="89" t="s">
         <v>357</v>
       </c>
       <c r="C187" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D187" s="100" t="s">
+      <c r="D187" s="93" t="s">
         <v>380</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F187" s="1"/>
+      <c r="F187" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -45409,8 +47580,8 @@
       <c r="BF187" s="1"/>
       <c r="BG187" s="1"/>
       <c r="BH187" s="1"/>
-      <c r="BI187" s="1"/>
-      <c r="BJ187" s="1"/>
+      <c r="BI187" s="95"/>
+      <c r="BJ187" s="96"/>
       <c r="BK187" s="1"/>
       <c r="BL187" s="1"/>
       <c r="BM187" s="1"/>
@@ -45512,21 +47683,23 @@
       <c r="FE187" s="1"/>
       <c r="FF187" s="1"/>
     </row>
-    <row r="188" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
-      <c r="B188" s="96" t="s">
+      <c r="B188" s="89" t="s">
         <v>358</v>
       </c>
       <c r="C188" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="100" t="s">
+      <c r="D188" s="93" t="s">
         <v>380</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F188" s="1"/>
+      <c r="F188" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -45581,8 +47754,8 @@
       <c r="BF188" s="1"/>
       <c r="BG188" s="1"/>
       <c r="BH188" s="1"/>
-      <c r="BI188" s="1"/>
-      <c r="BJ188" s="1"/>
+      <c r="BI188" s="95"/>
+      <c r="BJ188" s="96"/>
       <c r="BK188" s="1"/>
       <c r="BL188" s="1"/>
       <c r="BM188" s="1"/>
@@ -45684,21 +47857,23 @@
       <c r="FE188" s="1"/>
       <c r="FF188" s="1"/>
     </row>
-    <row r="189" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
-      <c r="B189" s="96" t="s">
+      <c r="B189" s="89" t="s">
         <v>359</v>
       </c>
       <c r="C189" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D189" s="100" t="s">
+      <c r="D189" s="93" t="s">
         <v>380</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F189" s="1"/>
+      <c r="F189" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -45753,8 +47928,8 @@
       <c r="BF189" s="1"/>
       <c r="BG189" s="1"/>
       <c r="BH189" s="1"/>
-      <c r="BI189" s="1"/>
-      <c r="BJ189" s="1"/>
+      <c r="BI189" s="95"/>
+      <c r="BJ189" s="96"/>
       <c r="BK189" s="1"/>
       <c r="BL189" s="1"/>
       <c r="BM189" s="1"/>
@@ -45856,21 +48031,23 @@
       <c r="FE189" s="1"/>
       <c r="FF189" s="1"/>
     </row>
-    <row r="190" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
-      <c r="B190" s="96" t="s">
+      <c r="B190" s="89" t="s">
         <v>360</v>
       </c>
       <c r="C190" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D190" s="100" t="s">
+      <c r="D190" s="93" t="s">
         <v>380</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F190" s="1"/>
+      <c r="F190" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -45925,8 +48102,8 @@
       <c r="BF190" s="1"/>
       <c r="BG190" s="1"/>
       <c r="BH190" s="1"/>
-      <c r="BI190" s="1"/>
-      <c r="BJ190" s="1"/>
+      <c r="BI190" s="95"/>
+      <c r="BJ190" s="97"/>
       <c r="BK190" s="1"/>
       <c r="BL190" s="1"/>
       <c r="BM190" s="1"/>
@@ -46028,9 +48205,9 @@
       <c r="FE190" s="1"/>
       <c r="FF190" s="1"/>
     </row>
-    <row r="191" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
-      <c r="B191" s="97" t="s">
+      <c r="B191" s="90" t="s">
         <v>332</v>
       </c>
       <c r="C191" s="39" t="s">
@@ -46042,7 +48219,9 @@
       <c r="E191" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F191" s="1"/>
+      <c r="F191" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -46098,8 +48277,8 @@
       <c r="BG191" s="1"/>
       <c r="BH191" s="1"/>
       <c r="BI191" s="1"/>
-      <c r="BJ191" s="1"/>
-      <c r="BK191" s="1"/>
+      <c r="BJ191" s="45"/>
+      <c r="BK191" s="47"/>
       <c r="BL191" s="1"/>
       <c r="BM191" s="1"/>
       <c r="BN191" s="1"/>
@@ -46200,9 +48379,9 @@
       <c r="FE191" s="1"/>
       <c r="FF191" s="1"/>
     </row>
-    <row r="192" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
-      <c r="B192" s="81" t="s">
+      <c r="B192" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C192" s="39" t="s">
@@ -46214,7 +48393,9 @@
       <c r="E192" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F192" s="1"/>
+      <c r="F192" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -46270,8 +48451,8 @@
       <c r="BG192" s="1"/>
       <c r="BH192" s="1"/>
       <c r="BI192" s="1"/>
-      <c r="BJ192" s="1"/>
-      <c r="BK192" s="1"/>
+      <c r="BJ192" s="45"/>
+      <c r="BK192" s="48"/>
       <c r="BL192" s="1"/>
       <c r="BM192" s="1"/>
       <c r="BN192" s="1"/>
@@ -46372,9 +48553,9 @@
       <c r="FE192" s="1"/>
       <c r="FF192" s="1"/>
     </row>
-    <row r="193" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
-      <c r="B193" s="81" t="s">
+      <c r="B193" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C193" s="39" t="s">
@@ -46386,7 +48567,9 @@
       <c r="E193" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F193" s="1"/>
+      <c r="F193" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -46443,8 +48626,8 @@
       <c r="BH193" s="1"/>
       <c r="BI193" s="1"/>
       <c r="BJ193" s="1"/>
-      <c r="BK193" s="1"/>
-      <c r="BL193" s="1"/>
+      <c r="BK193" s="45"/>
+      <c r="BL193" s="47"/>
       <c r="BM193" s="1"/>
       <c r="BN193" s="1"/>
       <c r="BO193" s="1"/>
@@ -46544,9 +48727,9 @@
       <c r="FE193" s="1"/>
       <c r="FF193" s="1"/>
     </row>
-    <row r="194" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
-      <c r="B194" s="81" t="s">
+      <c r="B194" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C194" s="39" t="s">
@@ -46558,7 +48741,9 @@
       <c r="E194" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F194" s="1"/>
+      <c r="F194" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -46615,8 +48800,8 @@
       <c r="BH194" s="1"/>
       <c r="BI194" s="1"/>
       <c r="BJ194" s="1"/>
-      <c r="BK194" s="1"/>
-      <c r="BL194" s="1"/>
+      <c r="BK194" s="45"/>
+      <c r="BL194" s="47"/>
       <c r="BM194" s="1"/>
       <c r="BN194" s="1"/>
       <c r="BO194" s="1"/>
@@ -46716,9 +48901,9 @@
       <c r="FE194" s="1"/>
       <c r="FF194" s="1"/>
     </row>
-    <row r="195" spans="1:162" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:162" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
-      <c r="B195" s="84" t="s">
+      <c r="B195" s="79" t="s">
         <v>336</v>
       </c>
       <c r="C195" s="39" t="s">
@@ -46730,7 +48915,9 @@
       <c r="E195" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F195" s="1"/>
+      <c r="F195" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -46787,8 +48974,8 @@
       <c r="BH195" s="1"/>
       <c r="BI195" s="1"/>
       <c r="BJ195" s="1"/>
-      <c r="BK195" s="1"/>
-      <c r="BL195" s="1"/>
+      <c r="BK195" s="45"/>
+      <c r="BL195" s="48"/>
       <c r="BM195" s="1"/>
       <c r="BN195" s="1"/>
       <c r="BO195" s="1"/>
@@ -46888,9 +49075,9 @@
       <c r="FE195" s="1"/>
       <c r="FF195" s="1"/>
     </row>
-    <row r="196" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
-      <c r="B196" s="81" t="s">
+      <c r="B196" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C196" s="39" t="s">
@@ -46902,7 +49089,9 @@
       <c r="E196" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F196" s="1"/>
+      <c r="F196" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -46960,8 +49149,8 @@
       <c r="BI196" s="1"/>
       <c r="BJ196" s="1"/>
       <c r="BK196" s="1"/>
-      <c r="BL196" s="1"/>
-      <c r="BM196" s="1"/>
+      <c r="BL196" s="45"/>
+      <c r="BM196" s="47"/>
       <c r="BN196" s="1"/>
       <c r="BO196" s="1"/>
       <c r="BP196" s="1"/>
@@ -47060,9 +49249,9 @@
       <c r="FE196" s="1"/>
       <c r="FF196" s="1"/>
     </row>
-    <row r="197" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
-      <c r="B197" s="81" t="s">
+      <c r="B197" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C197" s="39" t="s">
@@ -47074,7 +49263,9 @@
       <c r="E197" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F197" s="1"/>
+      <c r="F197" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -47132,8 +49323,8 @@
       <c r="BI197" s="1"/>
       <c r="BJ197" s="1"/>
       <c r="BK197" s="1"/>
-      <c r="BL197" s="1"/>
-      <c r="BM197" s="1"/>
+      <c r="BL197" s="45"/>
+      <c r="BM197" s="48"/>
       <c r="BN197" s="1"/>
       <c r="BO197" s="1"/>
       <c r="BP197" s="1"/>
@@ -47232,9 +49423,9 @@
       <c r="FE197" s="1"/>
       <c r="FF197" s="1"/>
     </row>
-    <row r="198" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
-      <c r="B198" s="86" t="s">
+      <c r="B198" s="81" t="s">
         <v>363</v>
       </c>
       <c r="C198" s="39" t="s">
@@ -47305,8 +49496,8 @@
       <c r="BJ198" s="1"/>
       <c r="BK198" s="1"/>
       <c r="BL198" s="1"/>
-      <c r="BM198" s="1"/>
-      <c r="BN198" s="1"/>
+      <c r="BM198" s="45"/>
+      <c r="BN198" s="47"/>
       <c r="BO198" s="1"/>
       <c r="BP198" s="1"/>
       <c r="BQ198" s="1"/>
@@ -47404,21 +49595,23 @@
       <c r="FE198" s="1"/>
       <c r="FF198" s="1"/>
     </row>
-    <row r="199" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
-      <c r="B199" s="98" t="s">
+      <c r="B199" s="91" t="s">
         <v>362</v>
       </c>
       <c r="C199" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D199" s="100" t="s">
+      <c r="D199" s="93" t="s">
         <v>385</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F199" s="1"/>
+      <c r="F199" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -47477,7 +49670,7 @@
       <c r="BJ199" s="1"/>
       <c r="BK199" s="1"/>
       <c r="BL199" s="1"/>
-      <c r="BM199" s="1"/>
+      <c r="BM199" s="98"/>
       <c r="BN199" s="1"/>
       <c r="BO199" s="1"/>
       <c r="BP199" s="1"/>
@@ -47576,21 +49769,23 @@
       <c r="FE199" s="1"/>
       <c r="FF199" s="1"/>
     </row>
-    <row r="200" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-      <c r="B200" s="98" t="s">
+      <c r="B200" s="91" t="s">
         <v>365</v>
       </c>
       <c r="C200" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D200" s="100" t="s">
+      <c r="D200" s="93" t="s">
         <v>385</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -47649,7 +49844,7 @@
       <c r="BJ200" s="1"/>
       <c r="BK200" s="1"/>
       <c r="BL200" s="1"/>
-      <c r="BM200" s="1"/>
+      <c r="BM200" s="98"/>
       <c r="BN200" s="1"/>
       <c r="BO200" s="1"/>
       <c r="BP200" s="1"/>
@@ -47748,21 +49943,23 @@
       <c r="FE200" s="1"/>
       <c r="FF200" s="1"/>
     </row>
-    <row r="201" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="B201" s="98" t="s">
+      <c r="B201" s="91" t="s">
         <v>364</v>
       </c>
       <c r="C201" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D201" s="100" t="s">
+      <c r="D201" s="93" t="s">
         <v>385</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F201" s="1"/>
+      <c r="F201" s="1">
+        <v>0.33</v>
+      </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -47821,7 +50018,7 @@
       <c r="BJ201" s="1"/>
       <c r="BK201" s="1"/>
       <c r="BL201" s="1"/>
-      <c r="BM201" s="1"/>
+      <c r="BM201" s="98"/>
       <c r="BN201" s="1"/>
       <c r="BO201" s="1"/>
       <c r="BP201" s="1"/>
@@ -47920,21 +50117,23 @@
       <c r="FE201" s="1"/>
       <c r="FF201" s="1"/>
     </row>
-    <row r="202" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
-      <c r="B202" s="98" t="s">
+      <c r="B202" s="91" t="s">
         <v>366</v>
       </c>
       <c r="C202" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D202" s="100" t="s">
+      <c r="D202" s="93" t="s">
         <v>386</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F202" s="1"/>
+      <c r="F202" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -47994,7 +50193,7 @@
       <c r="BK202" s="1"/>
       <c r="BL202" s="1"/>
       <c r="BM202" s="1"/>
-      <c r="BN202" s="1"/>
+      <c r="BN202" s="98"/>
       <c r="BO202" s="1"/>
       <c r="BP202" s="1"/>
       <c r="BQ202" s="1"/>
@@ -48092,21 +50291,23 @@
       <c r="FE202" s="1"/>
       <c r="FF202" s="1"/>
     </row>
-    <row r="203" spans="1:162" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:162" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
-      <c r="B203" s="99" t="s">
+      <c r="B203" s="92" t="s">
         <v>367</v>
       </c>
       <c r="C203" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D203" s="100" t="s">
+      <c r="D203" s="93" t="s">
         <v>386</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F203" s="1"/>
+      <c r="F203" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -48166,7 +50367,7 @@
       <c r="BK203" s="1"/>
       <c r="BL203" s="1"/>
       <c r="BM203" s="1"/>
-      <c r="BN203" s="1"/>
+      <c r="BN203" s="98"/>
       <c r="BO203" s="1"/>
       <c r="BP203" s="1"/>
       <c r="BQ203" s="1"/>
@@ -48264,21 +50465,23 @@
       <c r="FE203" s="1"/>
       <c r="FF203" s="1"/>
     </row>
-    <row r="204" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
-      <c r="B204" s="98" t="s">
+      <c r="B204" s="91" t="s">
         <v>368</v>
       </c>
       <c r="C204" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D204" s="100" t="s">
+      <c r="D204" s="93" t="s">
         <v>386</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F204" s="1"/>
+      <c r="F204" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -48338,7 +50541,7 @@
       <c r="BK204" s="1"/>
       <c r="BL204" s="1"/>
       <c r="BM204" s="1"/>
-      <c r="BN204" s="1"/>
+      <c r="BN204" s="98"/>
       <c r="BO204" s="1"/>
       <c r="BP204" s="1"/>
       <c r="BQ204" s="1"/>
@@ -48436,21 +50639,23 @@
       <c r="FE204" s="1"/>
       <c r="FF204" s="1"/>
     </row>
-    <row r="205" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
-      <c r="B205" s="98" t="s">
+      <c r="B205" s="91" t="s">
         <v>369</v>
       </c>
       <c r="C205" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D205" s="100" t="s">
+      <c r="D205" s="93" t="s">
         <v>386</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F205" s="1"/>
+      <c r="F205" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -48510,7 +50715,7 @@
       <c r="BK205" s="1"/>
       <c r="BL205" s="1"/>
       <c r="BM205" s="1"/>
-      <c r="BN205" s="1"/>
+      <c r="BN205" s="98"/>
       <c r="BO205" s="1"/>
       <c r="BP205" s="1"/>
       <c r="BQ205" s="1"/>
@@ -48608,21 +50813,23 @@
       <c r="FE205" s="1"/>
       <c r="FF205" s="1"/>
     </row>
-    <row r="206" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
-      <c r="B206" s="98" t="s">
+      <c r="B206" s="91" t="s">
         <v>370</v>
       </c>
       <c r="C206" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D206" s="100" t="s">
+      <c r="D206" s="93" t="s">
         <v>386</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F206" s="1"/>
+      <c r="F206" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -48682,7 +50889,7 @@
       <c r="BK206" s="1"/>
       <c r="BL206" s="1"/>
       <c r="BM206" s="1"/>
-      <c r="BN206" s="1"/>
+      <c r="BN206" s="98"/>
       <c r="BO206" s="1"/>
       <c r="BP206" s="1"/>
       <c r="BQ206" s="1"/>
@@ -48780,21 +50987,23 @@
       <c r="FE206" s="1"/>
       <c r="FF206" s="1"/>
     </row>
-    <row r="207" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
-      <c r="B207" s="98" t="s">
+      <c r="B207" s="91" t="s">
         <v>371</v>
       </c>
       <c r="C207" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D207" s="100" t="s">
+      <c r="D207" s="93" t="s">
         <v>386</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F207" s="1"/>
+      <c r="F207" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -48854,7 +51063,7 @@
       <c r="BK207" s="1"/>
       <c r="BL207" s="1"/>
       <c r="BM207" s="1"/>
-      <c r="BN207" s="1"/>
+      <c r="BN207" s="98"/>
       <c r="BO207" s="1"/>
       <c r="BP207" s="1"/>
       <c r="BQ207" s="1"/>
@@ -48952,21 +51161,23 @@
       <c r="FE207" s="1"/>
       <c r="FF207" s="1"/>
     </row>
-    <row r="208" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
-      <c r="B208" s="98" t="s">
+      <c r="B208" s="91" t="s">
         <v>372</v>
       </c>
       <c r="C208" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D208" s="100" t="s">
+      <c r="D208" s="93" t="s">
         <v>386</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F208" s="1"/>
+      <c r="F208" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -49026,7 +51237,7 @@
       <c r="BK208" s="1"/>
       <c r="BL208" s="1"/>
       <c r="BM208" s="1"/>
-      <c r="BN208" s="1"/>
+      <c r="BN208" s="99"/>
       <c r="BO208" s="1"/>
       <c r="BP208" s="1"/>
       <c r="BQ208" s="1"/>
@@ -49124,9 +51335,9 @@
       <c r="FE208" s="1"/>
       <c r="FF208" s="1"/>
     </row>
-    <row r="209" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
-      <c r="B209" s="81" t="s">
+      <c r="B209" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C209" s="39" t="s">
@@ -49138,7 +51349,9 @@
       <c r="E209" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F209" s="1"/>
+      <c r="F209" s="1">
+        <v>3</v>
+      </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -49198,11 +51411,11 @@
       <c r="BK209" s="1"/>
       <c r="BL209" s="1"/>
       <c r="BM209" s="1"/>
-      <c r="BN209" s="1"/>
-      <c r="BO209" s="1"/>
-      <c r="BP209" s="1"/>
-      <c r="BQ209" s="1"/>
-      <c r="BR209" s="1"/>
+      <c r="BN209" s="45"/>
+      <c r="BO209" s="46"/>
+      <c r="BP209" s="46"/>
+      <c r="BQ209" s="46"/>
+      <c r="BR209" s="48"/>
       <c r="BS209" s="1"/>
       <c r="BT209" s="1"/>
       <c r="BU209" s="1"/>
@@ -49296,9 +51509,9 @@
       <c r="FE209" s="1"/>
       <c r="FF209" s="1"/>
     </row>
-    <row r="210" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
-      <c r="B210" s="81" t="s">
+      <c r="B210" s="1" t="s">
         <v>351</v>
       </c>
       <c r="C210" s="39" t="s">
@@ -49310,7 +51523,9 @@
       <c r="E210" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F210" s="1"/>
+      <c r="F210" s="1">
+        <v>2</v>
+      </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -49374,13 +51589,13 @@
       <c r="BO210" s="1"/>
       <c r="BP210" s="1"/>
       <c r="BQ210" s="1"/>
-      <c r="BR210" s="1"/>
-      <c r="BS210" s="1"/>
-      <c r="BT210" s="1"/>
-      <c r="BU210" s="1"/>
-      <c r="BV210" s="1"/>
-      <c r="BW210" s="1"/>
-      <c r="BX210" s="1"/>
+      <c r="BR210" s="45"/>
+      <c r="BS210" s="46"/>
+      <c r="BT210" s="46"/>
+      <c r="BU210" s="46"/>
+      <c r="BV210" s="46"/>
+      <c r="BW210" s="46"/>
+      <c r="BX210" s="47"/>
       <c r="BY210" s="1"/>
       <c r="BZ210" s="1"/>
       <c r="CA210" s="1"/>
@@ -49468,9 +51683,9 @@
       <c r="FE210" s="1"/>
       <c r="FF210" s="1"/>
     </row>
-    <row r="211" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
-      <c r="B211" s="81" t="s">
+      <c r="B211" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C211" s="39" t="s">
@@ -49482,7 +51697,9 @@
       <c r="E211" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F211" s="1"/>
+      <c r="F211" s="1">
+        <v>2</v>
+      </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -49546,13 +51763,13 @@
       <c r="BO211" s="1"/>
       <c r="BP211" s="1"/>
       <c r="BQ211" s="1"/>
-      <c r="BR211" s="1"/>
-      <c r="BS211" s="1"/>
-      <c r="BT211" s="1"/>
-      <c r="BU211" s="1"/>
-      <c r="BV211" s="1"/>
-      <c r="BW211" s="1"/>
-      <c r="BX211" s="1"/>
+      <c r="BR211" s="45"/>
+      <c r="BS211" s="46"/>
+      <c r="BT211" s="46"/>
+      <c r="BU211" s="46"/>
+      <c r="BV211" s="46"/>
+      <c r="BW211" s="46"/>
+      <c r="BX211" s="47"/>
       <c r="BY211" s="1"/>
       <c r="BZ211" s="1"/>
       <c r="CA211" s="1"/>
@@ -49640,9 +51857,9 @@
       <c r="FE211" s="1"/>
       <c r="FF211" s="1"/>
     </row>
-    <row r="212" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
-      <c r="B212" s="81" t="s">
+      <c r="B212" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C212" s="39" t="s">
@@ -49654,7 +51871,9 @@
       <c r="E212" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F212" s="1"/>
+      <c r="F212" s="1">
+        <v>2</v>
+      </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -49718,13 +51937,13 @@
       <c r="BO212" s="1"/>
       <c r="BP212" s="1"/>
       <c r="BQ212" s="1"/>
-      <c r="BR212" s="1"/>
-      <c r="BS212" s="1"/>
-      <c r="BT212" s="1"/>
-      <c r="BU212" s="1"/>
-      <c r="BV212" s="1"/>
-      <c r="BW212" s="1"/>
-      <c r="BX212" s="1"/>
+      <c r="BR212" s="45"/>
+      <c r="BS212" s="46"/>
+      <c r="BT212" s="46"/>
+      <c r="BU212" s="46"/>
+      <c r="BV212" s="46"/>
+      <c r="BW212" s="46"/>
+      <c r="BX212" s="48"/>
       <c r="BY212" s="1"/>
       <c r="BZ212" s="1"/>
       <c r="CA212" s="1"/>
@@ -49812,9 +52031,9 @@
       <c r="FE212" s="1"/>
       <c r="FF212" s="1"/>
     </row>
-    <row r="213" spans="1:162" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:162" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
-      <c r="B213" s="84" t="s">
+      <c r="B213" s="79" t="s">
         <v>344</v>
       </c>
       <c r="C213" s="39" t="s">
@@ -49826,7 +52045,9 @@
       <c r="E213" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F213" s="1"/>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -49896,8 +52117,8 @@
       <c r="BU213" s="1"/>
       <c r="BV213" s="1"/>
       <c r="BW213" s="1"/>
-      <c r="BX213" s="1"/>
-      <c r="BY213" s="1"/>
+      <c r="BX213" s="45"/>
+      <c r="BY213" s="48"/>
       <c r="BZ213" s="1"/>
       <c r="CA213" s="1"/>
       <c r="CB213" s="1"/>
@@ -49984,9 +52205,9 @@
       <c r="FE213" s="1"/>
       <c r="FF213" s="1"/>
     </row>
-    <row r="214" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
-      <c r="B214" s="81" t="s">
+      <c r="B214" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C214" s="39" t="s">
@@ -49998,7 +52219,9 @@
       <c r="E214" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F214" s="1"/>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -50068,10 +52291,10 @@
       <c r="BU214" s="1"/>
       <c r="BV214" s="1"/>
       <c r="BW214" s="1"/>
-      <c r="BX214" s="1"/>
-      <c r="BY214" s="1"/>
-      <c r="BZ214" s="1"/>
-      <c r="CA214" s="1"/>
+      <c r="BX214" s="94"/>
+      <c r="BY214" s="45"/>
+      <c r="BZ214" s="46"/>
+      <c r="CA214" s="47"/>
       <c r="CB214" s="1"/>
       <c r="CC214" s="1"/>
       <c r="CD214" s="1"/>
@@ -50156,9 +52379,9 @@
       <c r="FE214" s="1"/>
       <c r="FF214" s="1"/>
     </row>
-    <row r="215" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
-      <c r="B215" s="81" t="s">
+      <c r="B215" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C215" s="39" t="s">
@@ -50170,7 +52393,9 @@
       <c r="E215" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F215" s="1"/>
+      <c r="F215" s="1">
+        <v>1</v>
+      </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -50241,9 +52466,9 @@
       <c r="BV215" s="1"/>
       <c r="BW215" s="1"/>
       <c r="BX215" s="1"/>
-      <c r="BY215" s="1"/>
-      <c r="BZ215" s="1"/>
-      <c r="CA215" s="1"/>
+      <c r="BY215" s="45"/>
+      <c r="BZ215" s="46"/>
+      <c r="CA215" s="48"/>
       <c r="CB215" s="1"/>
       <c r="CC215" s="1"/>
       <c r="CD215" s="1"/>
@@ -50328,9 +52553,9 @@
       <c r="FE215" s="1"/>
       <c r="FF215" s="1"/>
     </row>
-    <row r="216" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
-      <c r="B216" s="81" t="s">
+      <c r="B216" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C216" s="39" t="s">
@@ -50342,7 +52567,9 @@
       <c r="E216" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F216" s="1"/>
+      <c r="F216" s="1">
+        <v>2</v>
+      </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -50415,9 +52642,9 @@
       <c r="BX216" s="1"/>
       <c r="BY216" s="1"/>
       <c r="BZ216" s="1"/>
-      <c r="CA216" s="1"/>
-      <c r="CB216" s="1"/>
-      <c r="CC216" s="1"/>
+      <c r="CA216" s="71"/>
+      <c r="CB216" s="72"/>
+      <c r="CC216" s="101"/>
       <c r="CD216" s="1"/>
       <c r="CE216" s="1"/>
       <c r="CF216" s="1"/>
@@ -50500,9 +52727,9 @@
       <c r="FE216" s="1"/>
       <c r="FF216" s="1"/>
     </row>
-    <row r="217" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
-      <c r="B217" s="81" t="s">
+      <c r="B217" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C217" s="39" t="s">
@@ -50514,7 +52741,9 @@
       <c r="E217" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F217" s="1"/>
+      <c r="F217" s="1">
+        <v>1</v>
+      </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -50589,9 +52818,9 @@
       <c r="BZ217" s="1"/>
       <c r="CA217" s="1"/>
       <c r="CB217" s="1"/>
-      <c r="CC217" s="1"/>
-      <c r="CD217" s="1"/>
-      <c r="CE217" s="1"/>
+      <c r="CC217" s="45"/>
+      <c r="CD217" s="46"/>
+      <c r="CE217" s="47"/>
       <c r="CF217" s="1"/>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
@@ -50672,9 +52901,9 @@
       <c r="FE217" s="1"/>
       <c r="FF217" s="1"/>
     </row>
-    <row r="218" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
-      <c r="B218" s="81" t="s">
+      <c r="B218" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C218" s="39" t="s">
@@ -50686,7 +52915,9 @@
       <c r="E218" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F218" s="1"/>
+      <c r="F218" s="1">
+        <v>1</v>
+      </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -50761,9 +52992,9 @@
       <c r="BZ218" s="1"/>
       <c r="CA218" s="1"/>
       <c r="CB218" s="1"/>
-      <c r="CC218" s="1"/>
-      <c r="CD218" s="1"/>
-      <c r="CE218" s="1"/>
+      <c r="CC218" s="45"/>
+      <c r="CD218" s="46"/>
+      <c r="CE218" s="48"/>
       <c r="CF218" s="1"/>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
@@ -50844,9 +53075,9 @@
       <c r="FE218" s="1"/>
       <c r="FF218" s="1"/>
     </row>
-    <row r="219" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
-      <c r="B219" s="81" t="s">
+      <c r="B219" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C219" s="39" t="s">
@@ -50858,7 +53089,9 @@
       <c r="E219" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F219" s="1"/>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -50935,8 +53168,8 @@
       <c r="CB219" s="1"/>
       <c r="CC219" s="1"/>
       <c r="CD219" s="1"/>
-      <c r="CE219" s="1"/>
-      <c r="CF219" s="1"/>
+      <c r="CE219" s="45"/>
+      <c r="CF219" s="47"/>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
       <c r="CI219" s="1"/>
@@ -51016,9 +53249,9 @@
       <c r="FE219" s="1"/>
       <c r="FF219" s="1"/>
     </row>
-    <row r="220" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
-      <c r="B220" s="81" t="s">
+      <c r="B220" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C220" s="39" t="s">
@@ -51030,7 +53263,9 @@
       <c r="E220" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F220" s="1"/>
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -51107,8 +53342,8 @@
       <c r="CB220" s="1"/>
       <c r="CC220" s="1"/>
       <c r="CD220" s="1"/>
-      <c r="CE220" s="1"/>
-      <c r="CF220" s="1"/>
+      <c r="CE220" s="45"/>
+      <c r="CF220" s="48"/>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
       <c r="CI220" s="1"/>
@@ -51190,7 +53425,7 @@
     </row>
     <row r="221" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="81" t="s">
+      <c r="B221" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C221" s="39" t="s">
@@ -51202,7 +53437,9 @@
       <c r="E221" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F221" s="1"/>
+      <c r="F221" s="1">
+        <v>7</v>
+      </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -51280,14 +53517,14 @@
       <c r="CC221" s="1"/>
       <c r="CD221" s="1"/>
       <c r="CE221" s="1"/>
-      <c r="CF221" s="1"/>
-      <c r="CG221" s="1"/>
-      <c r="CH221" s="1"/>
-      <c r="CI221" s="1"/>
-      <c r="CJ221" s="1"/>
-      <c r="CK221" s="1"/>
-      <c r="CL221" s="1"/>
-      <c r="CM221" s="1"/>
+      <c r="CF221" s="100"/>
+      <c r="CG221" s="102"/>
+      <c r="CH221" s="102"/>
+      <c r="CI221" s="102"/>
+      <c r="CJ221" s="102"/>
+      <c r="CK221" s="102"/>
+      <c r="CL221" s="102"/>
+      <c r="CM221" s="48"/>
       <c r="CN221" s="1"/>
       <c r="CO221" s="1"/>
       <c r="CP221" s="1"/>
@@ -51360,7 +53597,7 @@
       <c r="FE221" s="1"/>
       <c r="FF221" s="1"/>
     </row>
-    <row r="222" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:162" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -51444,14 +53681,14 @@
       <c r="CC222" s="1"/>
       <c r="CD222" s="1"/>
       <c r="CE222" s="1"/>
-      <c r="CF222" s="1"/>
-      <c r="CG222" s="1"/>
-      <c r="CH222" s="1"/>
-      <c r="CI222" s="1"/>
-      <c r="CJ222" s="1"/>
-      <c r="CK222" s="1"/>
-      <c r="CL222" s="1"/>
-      <c r="CM222" s="1"/>
+      <c r="CF222" s="103"/>
+      <c r="CG222" s="104"/>
+      <c r="CH222" s="104"/>
+      <c r="CI222" s="104"/>
+      <c r="CJ222" s="104"/>
+      <c r="CK222" s="104"/>
+      <c r="CL222" s="104"/>
+      <c r="CM222" s="105"/>
       <c r="CN222" s="1"/>
       <c r="CO222" s="1"/>
       <c r="CP222" s="1"/>
